--- a/weatherrankfilter_dbscan.xlsx
+++ b/weatherrankfilter_dbscan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shukl\Documents\GitHub\Daily_Weather\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD67535-0C29-44DB-9822-E09420CAA8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F211EE-0DB8-4039-A623-38398E3283F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="12624" firstSheet="6" activeTab="10" xr2:uid="{9165270A-2809-4AF8-982C-0E3B25320FC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="14" xr2:uid="{9165270A-2809-4AF8-982C-0E3B25320FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="WeatherDT%10" sheetId="1" state="hidden" r:id="rId1"/>
@@ -27,11 +27,11 @@
     <sheet name="dbscan_acc" sheetId="14" r:id="rId12"/>
     <sheet name="dbscan" sheetId="15" r:id="rId13"/>
     <sheet name="dbscan_clust_l1pca" sheetId="16" r:id="rId14"/>
-    <sheet name="weatherDT%cor" sheetId="5" state="hidden" r:id="rId15"/>
-    <sheet name="weatherSVM%cor" sheetId="6" state="hidden" r:id="rId16"/>
+    <sheet name="knee_l1pca" sheetId="17" r:id="rId15"/>
+    <sheet name="weatherDT%cor" sheetId="5" state="hidden" r:id="rId16"/>
+    <sheet name="weatherSVM%cor" sheetId="6" state="hidden" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="82">
   <si>
     <t>---------split 1 --------------------</t>
   </si>
@@ -1112,7 +1112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1324,6 +1324,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1402,6 +1406,43 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2383,7 +2424,7 @@
       <selection activeCell="L1" sqref="L1:AD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:30" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
@@ -6267,7 +6308,7 @@
       <selection activeCell="L1" sqref="L1:AD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:30" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
@@ -10147,47 +10188,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D838B1-1E37-4D0B-9B15-37FBBE2F12F9}">
   <dimension ref="B1:L23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="8.81640625" style="48"/>
+    <col min="1" max="3" width="8.77734375" style="48"/>
     <col min="4" max="4" width="30" style="48" customWidth="1"/>
     <col min="5" max="5" width="26" style="48" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" style="48" customWidth="1"/>
-    <col min="7" max="9" width="8.81640625" style="48"/>
+    <col min="6" max="6" width="13.77734375" style="48" customWidth="1"/>
+    <col min="7" max="9" width="8.77734375" style="48"/>
     <col min="10" max="10" width="27" style="48" customWidth="1"/>
     <col min="11" max="11" width="26" style="48" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="48" customWidth="1"/>
-    <col min="13" max="16384" width="8.81640625" style="48"/>
+    <col min="13" max="16384" width="8.77734375" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1"/>
     <row r="2" spans="2:12" ht="15" thickBot="1">
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
-      <c r="D2" s="114" t="s">
+      <c r="D2" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="115"/>
+      <c r="E2" s="119"/>
       <c r="F2" s="50"/>
-      <c r="J2" s="114" t="s">
+      <c r="J2" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="115"/>
-    </row>
-    <row r="3" spans="2:12" ht="14.5" customHeight="1">
-      <c r="D3" s="116" t="s">
+      <c r="K2" s="119"/>
+    </row>
+    <row r="3" spans="2:12" ht="14.55" customHeight="1">
+      <c r="D3" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="117"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="51"/>
-      <c r="J3" s="116" t="s">
+      <c r="J3" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="117"/>
+      <c r="K3" s="121"/>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1">
       <c r="D4" s="52" t="s">
@@ -10204,8 +10245,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="14.5" customHeight="1">
-      <c r="B5" s="110" t="b">
+    <row r="5" spans="2:12" ht="14.55" customHeight="1">
+      <c r="B5" s="114" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="55" t="s">
@@ -10219,10 +10260,10 @@
         <f>D14</f>
         <v>34.4</v>
       </c>
-      <c r="F5" s="112" t="s">
+      <c r="F5" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="110" t="b">
+      <c r="H5" s="114" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="55" t="s">
@@ -10236,12 +10277,12 @@
         <f>D20</f>
         <v>34.9</v>
       </c>
-      <c r="L5" s="112" t="s">
+      <c r="L5" s="116" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="B6" s="111"/>
+      <c r="B6" s="115"/>
       <c r="C6" s="58" t="s">
         <v>56</v>
       </c>
@@ -10253,8 +10294,8 @@
         <f>D15</f>
         <v>124.9</v>
       </c>
-      <c r="F6" s="113"/>
-      <c r="H6" s="111"/>
+      <c r="F6" s="117"/>
+      <c r="H6" s="115"/>
       <c r="I6" s="58" t="s">
         <v>56</v>
       </c>
@@ -10266,9 +10307,9 @@
         <f>D21</f>
         <v>120.8</v>
       </c>
-      <c r="L6" s="113"/>
-    </row>
-    <row r="7" spans="2:12" ht="29">
+      <c r="L6" s="117"/>
+    </row>
+    <row r="7" spans="2:12" ht="28.8">
       <c r="D7" s="73" t="s">
         <v>68</v>
       </c>
@@ -10283,7 +10324,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="44" thickBot="1">
+    <row r="8" spans="2:12" ht="43.8" thickBot="1">
       <c r="D8" s="75" t="s">
         <v>69</v>
       </c>
@@ -10552,16 +10593,16 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="104"/>
+      <c r="H1" s="108"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2"/>
@@ -10583,10 +10624,10 @@
       <c r="H2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="105" t="s">
+      <c r="I2" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="106"/>
+      <c r="J2" s="110"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="3">
@@ -10612,11 +10653,11 @@
         <f>SUM(D3,D6,D9,D12,D15,D18,D21,D24,D27,D30)/10</f>
         <v>23.824451400000001</v>
       </c>
-      <c r="I3" s="107">
+      <c r="I3" s="111">
         <f>(H3-G3)/H3*100</f>
         <v>3.6842103319113475</v>
       </c>
-      <c r="J3" s="108"/>
+      <c r="J3" s="112"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
@@ -10915,43 +10956,43 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="8.81640625" style="48"/>
+    <col min="1" max="3" width="8.77734375" style="48"/>
     <col min="4" max="4" width="30" style="48" customWidth="1"/>
     <col min="5" max="5" width="26" style="48" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" style="48" customWidth="1"/>
-    <col min="7" max="9" width="8.81640625" style="48"/>
+    <col min="6" max="6" width="13.77734375" style="48" customWidth="1"/>
+    <col min="7" max="9" width="8.77734375" style="48"/>
     <col min="10" max="10" width="27" style="48" customWidth="1"/>
     <col min="11" max="11" width="26" style="48" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="48" customWidth="1"/>
-    <col min="13" max="16384" width="8.81640625" style="48"/>
+    <col min="13" max="16384" width="8.77734375" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1"/>
     <row r="2" spans="2:12" ht="15" thickBot="1">
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
-      <c r="D2" s="114" t="s">
+      <c r="D2" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="115"/>
+      <c r="E2" s="119"/>
       <c r="F2" s="50"/>
-      <c r="J2" s="114" t="s">
+      <c r="J2" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="115"/>
-    </row>
-    <row r="3" spans="2:12" ht="14.5" customHeight="1">
-      <c r="D3" s="116" t="s">
+      <c r="K2" s="119"/>
+    </row>
+    <row r="3" spans="2:12" ht="14.55" customHeight="1">
+      <c r="D3" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="117"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="51"/>
-      <c r="J3" s="116" t="s">
+      <c r="J3" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="117"/>
+      <c r="K3" s="121"/>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1">
       <c r="D4" s="52" t="s">
@@ -10968,8 +11009,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="14.5" customHeight="1">
-      <c r="B5" s="110" t="b">
+    <row r="5" spans="2:12" ht="14.55" customHeight="1">
+      <c r="B5" s="114" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="55" t="s">
@@ -10983,10 +11024,10 @@
         <f>D14</f>
         <v>34.1</v>
       </c>
-      <c r="F5" s="112" t="s">
+      <c r="F5" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="110" t="b">
+      <c r="H5" s="114" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="55" t="s">
@@ -11000,12 +11041,12 @@
         <f>D20</f>
         <v>34.9</v>
       </c>
-      <c r="L5" s="112" t="s">
+      <c r="L5" s="116" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="B6" s="111"/>
+      <c r="B6" s="115"/>
       <c r="C6" s="58" t="s">
         <v>56</v>
       </c>
@@ -11017,8 +11058,8 @@
         <f>D15</f>
         <v>121.6</v>
       </c>
-      <c r="F6" s="113"/>
-      <c r="H6" s="111"/>
+      <c r="F6" s="117"/>
+      <c r="H6" s="115"/>
       <c r="I6" s="58" t="s">
         <v>56</v>
       </c>
@@ -11030,9 +11071,9 @@
         <f>D21</f>
         <v>120.8</v>
       </c>
-      <c r="L6" s="113"/>
-    </row>
-    <row r="7" spans="2:12" ht="29">
+      <c r="L6" s="117"/>
+    </row>
+    <row r="7" spans="2:12" ht="28.8">
       <c r="D7" s="73" t="s">
         <v>77</v>
       </c>
@@ -11047,7 +11088,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="44" thickBot="1">
+    <row r="8" spans="2:12" ht="43.8" thickBot="1">
       <c r="D8" s="75" t="s">
         <v>78</v>
       </c>
@@ -11313,39 +11354,39 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1">
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="G1" s="118" t="s">
+      <c r="C1" s="123"/>
+      <c r="D1" s="124"/>
+      <c r="G1" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="119"/>
-      <c r="I1" s="120"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="124"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1"/>
     <row r="3" spans="1:14" ht="15" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="125" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="122"/>
+      <c r="D3" s="126"/>
       <c r="E3" s="77"/>
-      <c r="H3" s="123" t="s">
+      <c r="H3" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="124"/>
+      <c r="I3" s="128"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1">
       <c r="A4" s="76"/>
@@ -11365,7 +11406,7 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="125" t="b">
+      <c r="A5" s="129" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="78" t="s">
@@ -11388,7 +11429,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1">
-      <c r="A6" s="126"/>
+      <c r="A6" s="130"/>
       <c r="B6" s="81" t="s">
         <v>56</v>
       </c>
@@ -11479,6 +11520,218 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BF5402-0B55-4FF7-968A-750CFC968FFA}">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" thickBot="1">
+      <c r="B1" s="122" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="123"/>
+      <c r="D1" s="124"/>
+      <c r="G1" s="122" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="123"/>
+      <c r="I1" s="124"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickBot="1"/>
+    <row r="3" spans="1:14" ht="15" thickBot="1">
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="125" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="126"/>
+      <c r="E3" s="77"/>
+      <c r="H3" s="127" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="128"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1">
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="76"/>
+      <c r="H4" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="129" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="131">
+        <v>0.149843</v>
+      </c>
+      <c r="D5" s="132">
+        <v>0.34263300000000002</v>
+      </c>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="135" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="131">
+        <v>0.12978100000000001</v>
+      </c>
+      <c r="I5" s="132">
+        <v>0.36269600000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" thickBot="1">
+      <c r="A6" s="130"/>
+      <c r="B6" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="133">
+        <v>8.8088E-2</v>
+      </c>
+      <c r="D6" s="134">
+        <v>0.50689700000000004</v>
+      </c>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="136" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="133">
+        <v>3.1300000000000002E-4</v>
+      </c>
+      <c r="I6" s="134">
+        <v>0.50721000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" thickBot="1">
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="N8" s="84"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="86"/>
+      <c r="C9" s="137">
+        <v>0.99876500000000001</v>
+      </c>
+      <c r="D9" s="138"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="140">
+        <v>0.99938199999999999</v>
+      </c>
+      <c r="I9" s="141"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" thickBot="1">
+      <c r="A10" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="90"/>
+      <c r="C10" s="142">
+        <v>0.69573499999999999</v>
+      </c>
+      <c r="D10" s="143"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="145">
+        <v>0.73647399999999996</v>
+      </c>
+      <c r="I10" s="146"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1">
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="147"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" thickBot="1">
+      <c r="A13" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="97"/>
+      <c r="C13" s="101">
+        <v>0.34326000000000001</v>
+      </c>
+      <c r="D13" s="102"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="101">
+        <v>0.36300900000000003</v>
+      </c>
+      <c r="I13" s="102"/>
+      <c r="K13">
+        <f>(H13-C13)/H13*100</f>
+        <v>5.4403609827855544</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="95"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A5:A6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765A0386-4415-4EA4-8432-46269E7FD37D}">
   <dimension ref="A1:AD100"/>
   <sheetViews>
@@ -11486,7 +11739,7 @@
       <selection activeCell="L1" sqref="L1:AD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:30" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
@@ -15362,7 +15615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E44AA6-5C29-4F1A-90A3-F2DA20FD2287}">
   <dimension ref="A1:AD100"/>
   <sheetViews>
@@ -15370,7 +15623,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:30" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
@@ -19254,7 +19507,7 @@
       <selection activeCell="L1" sqref="L1:AD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:30" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
@@ -23138,7 +23391,7 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
@@ -23901,7 +24154,7 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
@@ -24266,21 +24519,21 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.08984375" customWidth="1"/>
-    <col min="9" max="9" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="101" t="s">
+      <c r="G1" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="102"/>
+      <c r="H1" s="106"/>
       <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:16">
@@ -24717,21 +24970,21 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.453125" customWidth="1"/>
-    <col min="9" max="9" width="30.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="30.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="101" t="s">
+      <c r="G1" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="102"/>
+      <c r="H1" s="106"/>
       <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:16">
@@ -25170,21 +25423,21 @@
       <selection activeCell="F1" sqref="F1:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="8" max="8" width="9.81640625" customWidth="1"/>
-    <col min="9" max="9" width="19.1796875" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" customWidth="1"/>
+    <col min="9" max="9" width="19.21875" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="104"/>
+      <c r="H1" s="108"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="2"/>
@@ -25206,10 +25459,10 @@
       <c r="H2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="105" t="s">
+      <c r="I2" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="106"/>
+      <c r="J2" s="110"/>
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1">
       <c r="A3" s="3">
@@ -25235,11 +25488,11 @@
         <f>SUM(D3,D6,D9,D12,D15,D18,D21,D24,D27,D30)/10</f>
         <v>23.824451400000001</v>
       </c>
-      <c r="I3" s="107">
+      <c r="I3" s="111">
         <f>(H3-G3)/H3*100</f>
         <v>8.5526317722472331</v>
       </c>
-      <c r="J3" s="108"/>
+      <c r="J3" s="112"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1">
       <c r="A4" s="1" t="s">
@@ -25630,10 +25883,10 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -25643,10 +25896,10 @@
       <c r="C1" s="46"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="109"/>
+      <c r="C2" s="113"/>
       <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:6">
@@ -25678,8 +25931,8 @@
       <c r="F8" s="46"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
       <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:6">
@@ -25709,7 +25962,7 @@
       <selection activeCell="L1" sqref="L1:AD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:30" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">

--- a/weatherrankfilter_dbscan.xlsx
+++ b/weatherrankfilter_dbscan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shukl\Documents\GitHub\Daily_Weather\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F211EE-0DB8-4039-A623-38398E3283F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D716EE-5BA3-4935-ACED-99EF607309D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="14" xr2:uid="{9165270A-2809-4AF8-982C-0E3B25320FC9}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="86">
   <si>
     <t>---------split 1 --------------------</t>
   </si>
@@ -616,6 +616,18 @@
 = 0.222</t>
     </r>
   </si>
+  <si>
+    <t>Raw</t>
+  </si>
+  <si>
+    <t>20% excision</t>
+  </si>
+  <si>
+    <t>knee angle</t>
+  </si>
+  <si>
+    <t>knee error</t>
+  </si>
 </sst>
 </file>
 
@@ -624,7 +636,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -692,8 +704,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -781,6 +800,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,7 +1137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1298,36 +1323,48 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1406,43 +1443,48 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2410,7 +2452,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10209,26 +10251,26 @@
     <row r="2" spans="2:12" ht="15" thickBot="1">
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
-      <c r="D2" s="118" t="s">
+      <c r="D2" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="119"/>
+      <c r="E2" s="123"/>
       <c r="F2" s="50"/>
-      <c r="J2" s="118" t="s">
+      <c r="J2" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="119"/>
+      <c r="K2" s="123"/>
     </row>
     <row r="3" spans="2:12" ht="14.55" customHeight="1">
-      <c r="D3" s="120" t="s">
+      <c r="D3" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="121"/>
+      <c r="E3" s="125"/>
       <c r="F3" s="51"/>
-      <c r="J3" s="120" t="s">
+      <c r="J3" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="121"/>
+      <c r="K3" s="125"/>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1">
       <c r="D4" s="52" t="s">
@@ -10246,7 +10288,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.55" customHeight="1">
-      <c r="B5" s="114" t="b">
+      <c r="B5" s="118" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="55" t="s">
@@ -10260,10 +10302,10 @@
         <f>D14</f>
         <v>34.4</v>
       </c>
-      <c r="F5" s="116" t="s">
+      <c r="F5" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="114" t="b">
+      <c r="H5" s="118" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="55" t="s">
@@ -10277,12 +10319,12 @@
         <f>D20</f>
         <v>34.9</v>
       </c>
-      <c r="L5" s="116" t="s">
+      <c r="L5" s="120" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="B6" s="115"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="58" t="s">
         <v>56</v>
       </c>
@@ -10294,8 +10336,8 @@
         <f>D15</f>
         <v>124.9</v>
       </c>
-      <c r="F6" s="117"/>
-      <c r="H6" s="115"/>
+      <c r="F6" s="121"/>
+      <c r="H6" s="119"/>
       <c r="I6" s="58" t="s">
         <v>56</v>
       </c>
@@ -10307,7 +10349,7 @@
         <f>D21</f>
         <v>120.8</v>
       </c>
-      <c r="L6" s="117"/>
+      <c r="L6" s="121"/>
     </row>
     <row r="7" spans="2:12" ht="28.8">
       <c r="D7" s="73" t="s">
@@ -10599,10 +10641,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="108"/>
+      <c r="H1" s="112"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2"/>
@@ -10624,10 +10666,10 @@
       <c r="H2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="109" t="s">
+      <c r="I2" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="110"/>
+      <c r="J2" s="114"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="3">
@@ -10653,11 +10695,11 @@
         <f>SUM(D3,D6,D9,D12,D15,D18,D21,D24,D27,D30)/10</f>
         <v>23.824451400000001</v>
       </c>
-      <c r="I3" s="111">
+      <c r="I3" s="115">
         <f>(H3-G3)/H3*100</f>
         <v>3.6842103319113475</v>
       </c>
-      <c r="J3" s="112"/>
+      <c r="J3" s="116"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
@@ -10973,26 +11015,26 @@
     <row r="2" spans="2:12" ht="15" thickBot="1">
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
-      <c r="D2" s="118" t="s">
+      <c r="D2" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="119"/>
+      <c r="E2" s="123"/>
       <c r="F2" s="50"/>
-      <c r="J2" s="118" t="s">
+      <c r="J2" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="119"/>
+      <c r="K2" s="123"/>
     </row>
     <row r="3" spans="2:12" ht="14.55" customHeight="1">
-      <c r="D3" s="120" t="s">
+      <c r="D3" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="121"/>
+      <c r="E3" s="125"/>
       <c r="F3" s="51"/>
-      <c r="J3" s="120" t="s">
+      <c r="J3" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="121"/>
+      <c r="K3" s="125"/>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1">
       <c r="D4" s="52" t="s">
@@ -11010,7 +11052,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.55" customHeight="1">
-      <c r="B5" s="114" t="b">
+      <c r="B5" s="118" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="55" t="s">
@@ -11024,10 +11066,10 @@
         <f>D14</f>
         <v>34.1</v>
       </c>
-      <c r="F5" s="116" t="s">
+      <c r="F5" s="120" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="114" t="b">
+      <c r="H5" s="118" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="55" t="s">
@@ -11041,12 +11083,12 @@
         <f>D20</f>
         <v>34.9</v>
       </c>
-      <c r="L5" s="116" t="s">
+      <c r="L5" s="120" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="B6" s="115"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="58" t="s">
         <v>56</v>
       </c>
@@ -11058,8 +11100,8 @@
         <f>D15</f>
         <v>121.6</v>
       </c>
-      <c r="F6" s="117"/>
-      <c r="H6" s="115"/>
+      <c r="F6" s="121"/>
+      <c r="H6" s="119"/>
       <c r="I6" s="58" t="s">
         <v>56</v>
       </c>
@@ -11071,7 +11113,7 @@
         <f>D21</f>
         <v>120.8</v>
       </c>
-      <c r="L6" s="117"/>
+      <c r="L6" s="121"/>
     </row>
     <row r="7" spans="2:12" ht="28.8">
       <c r="D7" s="73" t="s">
@@ -11354,39 +11396,41 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1">
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="123"/>
-      <c r="D1" s="124"/>
-      <c r="G1" s="122" t="s">
+      <c r="C1" s="127"/>
+      <c r="D1" s="128"/>
+      <c r="G1" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="123"/>
-      <c r="I1" s="124"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="128"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1"/>
     <row r="3" spans="1:14" ht="15" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="126"/>
+      <c r="D3" s="130"/>
       <c r="E3" s="77"/>
-      <c r="H3" s="127" t="s">
+      <c r="H3" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="128"/>
+      <c r="I3" s="132"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1">
       <c r="A4" s="76"/>
@@ -11406,48 +11450,28 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="129" t="b">
+      <c r="A5" s="133" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="79">
-        <v>124.1</v>
-      </c>
-      <c r="D5" s="80">
-        <v>33</v>
-      </c>
-      <c r="G5" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="79">
-        <v>122.2</v>
-      </c>
-      <c r="I5" s="80">
-        <v>34.9</v>
-      </c>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1">
-      <c r="A6" s="130"/>
+      <c r="A6" s="134"/>
       <c r="B6" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="82">
-        <v>40.4</v>
-      </c>
-      <c r="D6" s="83">
-        <v>121.5</v>
-      </c>
-      <c r="G6" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="82">
-        <v>41.1</v>
-      </c>
-      <c r="I6" s="83">
-        <v>120.8</v>
-      </c>
+      <c r="C6" s="82"/>
+      <c r="D6" s="83"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="83"/>
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1">
       <c r="N8" s="84"/>
@@ -11457,55 +11481,45 @@
         <v>74</v>
       </c>
       <c r="B9" s="86"/>
-      <c r="C9" s="100">
-        <v>0.75046299999999999</v>
-      </c>
-      <c r="D9" s="87"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="14">
-        <v>0.74614000000000003</v>
-      </c>
-      <c r="I9" s="88"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="87"/>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="91">
-        <v>0.21005699999999999</v>
-      </c>
-      <c r="D10" s="92"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="93">
-        <v>0.22215099999999999</v>
-      </c>
-      <c r="I10" s="94"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="90"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="91"/>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1">
-      <c r="I12" s="95"/>
+      <c r="I12" s="92"/>
     </row>
     <row r="13" spans="1:14" ht="15" thickBot="1">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="98">
-        <v>0.23</v>
-      </c>
-      <c r="D13" s="99"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="98">
-        <v>0.24</v>
-      </c>
-      <c r="I13" s="99"/>
-      <c r="K13">
+      <c r="B13" s="94"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="95"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="95"/>
+      <c r="K13" t="e">
         <f>(H13-C13)/H13 *100</f>
-        <v>4.166666666666659</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="95"/>
+      <c r="A14" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -11521,10 +11535,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BF5402-0B55-4FF7-968A-750CFC968FFA}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11532,33 +11546,46 @@
     <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1">
-      <c r="B1" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="123"/>
-      <c r="D1" s="124"/>
-      <c r="G1" s="122" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="123"/>
-      <c r="I1" s="124"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1"/>
-    <row r="3" spans="1:14" ht="15" thickBot="1">
+    <row r="1" spans="1:15" ht="15" thickBot="1">
+      <c r="C1" s="135" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="136"/>
+      <c r="E1" s="135" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="136"/>
+      <c r="G1" s="135" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="136"/>
+      <c r="I1" s="135" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="136"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" thickBot="1"/>
+    <row r="3" spans="1:15" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="126"/>
-      <c r="E3" s="77"/>
-      <c r="H3" s="127" t="s">
+      <c r="D3" s="130"/>
+      <c r="E3" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="128"/>
-    </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1">
+      <c r="F3" s="130"/>
+      <c r="G3" s="131" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="132"/>
+      <c r="I3" s="131" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="132"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" thickBot="1">
       <c r="A4" s="76"/>
       <c r="B4" s="76"/>
       <c r="C4" s="52" t="s">
@@ -11567,164 +11594,224 @@
       <c r="D4" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="76"/>
-      <c r="H4" s="52" t="s">
+      <c r="E4" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="53" t="s">
+      <c r="F4" s="53" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="129" t="b">
+      <c r="G4" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="133" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="131">
-        <v>0.149843</v>
-      </c>
-      <c r="D5" s="132">
-        <v>0.34263300000000002</v>
-      </c>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="135" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="131">
-        <v>0.12978100000000001</v>
-      </c>
-      <c r="I5" s="132">
-        <v>0.36269600000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1">
-      <c r="A6" s="130"/>
+      <c r="C5" s="98">
+        <v>0.92934399999999995</v>
+      </c>
+      <c r="D5" s="99">
+        <v>7.0456000000000005E-2</v>
+      </c>
+      <c r="E5" s="98">
+        <v>0.80649300000000002</v>
+      </c>
+      <c r="F5" s="99">
+        <v>0.19350700000000001</v>
+      </c>
+      <c r="G5" s="98">
+        <v>0.92870799999999998</v>
+      </c>
+      <c r="H5" s="99">
+        <v>7.1291999999999994E-2</v>
+      </c>
+      <c r="I5" s="98">
+        <v>0.92870799999999998</v>
+      </c>
+      <c r="J5" s="99">
+        <v>7.1291999999999994E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" thickBot="1">
+      <c r="A6" s="134"/>
       <c r="B6" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="133">
-        <v>8.8088E-2</v>
-      </c>
-      <c r="D6" s="134">
-        <v>0.50689700000000004</v>
-      </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="136" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="133">
-        <v>3.1300000000000002E-4</v>
-      </c>
-      <c r="I6" s="134">
-        <v>0.50721000000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-    </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1">
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="N8" s="84"/>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="C6" s="100">
+        <v>0.13712199999999999</v>
+      </c>
+      <c r="D6" s="101">
+        <v>0.86287800000000003</v>
+      </c>
+      <c r="E6" s="100">
+        <v>0.11303299999999999</v>
+      </c>
+      <c r="F6" s="101">
+        <v>0.88696699999999995</v>
+      </c>
+      <c r="G6" s="100">
+        <v>0.14021</v>
+      </c>
+      <c r="H6" s="101">
+        <v>0.85979000000000005</v>
+      </c>
+      <c r="I6" s="100">
+        <v>0.13959199999999999</v>
+      </c>
+      <c r="J6" s="101">
+        <v>0.86040799999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+    </row>
+    <row r="8" spans="1:15" ht="15" thickBot="1">
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="O8" s="84"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="85" t="s">
         <v>74</v>
       </c>
       <c r="B9" s="86"/>
-      <c r="C9" s="137">
-        <v>0.99876500000000001</v>
-      </c>
-      <c r="D9" s="138"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="140">
-        <v>0.99938199999999999</v>
-      </c>
-      <c r="I9" s="141"/>
-    </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1">
-      <c r="A10" s="89" t="s">
+      <c r="C9" s="141">
+        <v>0.86287800000000003</v>
+      </c>
+      <c r="D9" s="142"/>
+      <c r="E9" s="141">
+        <v>0.88696699999999995</v>
+      </c>
+      <c r="F9" s="142"/>
+      <c r="G9" s="143">
+        <v>0.85979000000000005</v>
+      </c>
+      <c r="H9" s="144"/>
+      <c r="I9" s="143">
+        <v>0.86040799999999995</v>
+      </c>
+      <c r="J9" s="144"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" thickBot="1">
+      <c r="A10" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="142">
-        <v>0.69573499999999999</v>
-      </c>
-      <c r="D10" s="143"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="145">
-        <v>0.73647399999999996</v>
-      </c>
-      <c r="I10" s="146"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-    </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1">
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="147"/>
-    </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1">
-      <c r="A13" s="96" t="s">
+      <c r="B10" s="89"/>
+      <c r="C10" s="145">
+        <v>7.0456000000000005E-2</v>
+      </c>
+      <c r="D10" s="146"/>
+      <c r="E10" s="145">
+        <v>0.19350700000000001</v>
+      </c>
+      <c r="F10" s="146"/>
+      <c r="G10" s="147">
+        <v>7.1291999999999994E-2</v>
+      </c>
+      <c r="H10" s="148"/>
+      <c r="I10" s="147">
+        <v>7.1291999999999994E-2</v>
+      </c>
+      <c r="J10" s="148"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+    </row>
+    <row r="12" spans="1:15" ht="15" thickBot="1">
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="108"/>
+    </row>
+    <row r="13" spans="1:15" ht="15" thickBot="1">
+      <c r="A13" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="101">
-        <v>0.34326000000000001</v>
-      </c>
-      <c r="D13" s="102"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="101">
-        <v>0.36300900000000003</v>
-      </c>
-      <c r="I13" s="102"/>
-      <c r="K13">
-        <f>(H13-C13)/H13*100</f>
-        <v>5.4403609827855544</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="95"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="137">
+        <v>0.104389</v>
+      </c>
+      <c r="D13" s="138"/>
+      <c r="E13" s="137">
+        <v>0.152665</v>
+      </c>
+      <c r="F13" s="138"/>
+      <c r="G13" s="139">
+        <v>0.10627</v>
+      </c>
+      <c r="H13" s="140"/>
+      <c r="I13" s="139">
+        <v>0.10595599999999999</v>
+      </c>
+      <c r="J13" s="140"/>
+      <c r="L13">
+        <f>(I13-C13)/I13*100</f>
+        <v>1.4789157763599976</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="92"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="G1:I1"/>
+  <mergeCells count="21">
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G13:H13"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="I3:J3"/>
     <mergeCell ref="A5:A6"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24530,10 +24617,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="105" t="s">
+      <c r="G1" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="106"/>
+      <c r="H1" s="110"/>
       <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:16">
@@ -24981,10 +25068,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="105" t="s">
+      <c r="G1" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="106"/>
+      <c r="H1" s="110"/>
       <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:16">
@@ -25434,10 +25521,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="108"/>
+      <c r="H1" s="112"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="2"/>
@@ -25459,10 +25546,10 @@
       <c r="H2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="109" t="s">
+      <c r="I2" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="110"/>
+      <c r="J2" s="114"/>
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1">
       <c r="A3" s="3">
@@ -25488,11 +25575,11 @@
         <f>SUM(D3,D6,D9,D12,D15,D18,D21,D24,D27,D30)/10</f>
         <v>23.824451400000001</v>
       </c>
-      <c r="I3" s="111">
+      <c r="I3" s="115">
         <f>(H3-G3)/H3*100</f>
         <v>8.5526317722472331</v>
       </c>
-      <c r="J3" s="112"/>
+      <c r="J3" s="116"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1">
       <c r="A4" s="1" t="s">
@@ -25896,10 +25983,10 @@
       <c r="C1" s="46"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="113"/>
+      <c r="C2" s="117"/>
       <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:6">
@@ -25931,8 +26018,8 @@
       <c r="F8" s="46"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
       <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:6">

--- a/weatherrankfilter_dbscan.xlsx
+++ b/weatherrankfilter_dbscan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shukl\Documents\GitHub\Daily_Weather\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D716EE-5BA3-4935-ACED-99EF607309D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319D564F-CE11-4FF9-8BB8-98DA35DE98DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="14" xr2:uid="{9165270A-2809-4AF8-982C-0E3B25320FC9}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="87">
   <si>
     <t>---------split 1 --------------------</t>
   </si>
@@ -628,6 +628,9 @@
   <si>
     <t>knee error</t>
   </si>
+  <si>
+    <t xml:space="preserve">knee opt </t>
+  </si>
 </sst>
 </file>
 
@@ -712,7 +715,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -809,8 +812,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1133,11 +1142,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1443,12 +1482,6 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1483,6 +1516,98 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11538,7 +11663,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11547,24 +11672,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1">
-      <c r="C1" s="135" t="s">
+      <c r="C1" s="147" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="136"/>
-      <c r="E1" s="135" t="s">
+      <c r="D1" s="148"/>
+      <c r="E1" s="147" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="136"/>
-      <c r="G1" s="135" t="s">
+      <c r="F1" s="148"/>
+      <c r="G1" s="149" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="136"/>
-      <c r="I1" s="135" t="s">
+      <c r="H1" s="150"/>
+      <c r="I1" s="147" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="136"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1"/>
+      <c r="J1" s="148"/>
+      <c r="N1" s="147" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" s="148"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" thickBot="1">
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="169"/>
+    </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="76"/>
@@ -11576,14 +11710,18 @@
         <v>45</v>
       </c>
       <c r="F3" s="130"/>
-      <c r="G3" s="131" t="s">
+      <c r="G3" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="132"/>
+      <c r="H3" s="153"/>
       <c r="I3" s="131" t="s">
         <v>45</v>
       </c>
       <c r="J3" s="132"/>
+      <c r="N3" s="131" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="170"/>
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1">
       <c r="A4" s="76"/>
@@ -11600,10 +11738,10 @@
       <c r="F4" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="155" t="s">
         <v>56</v>
       </c>
       <c r="I4" s="52" t="s">
@@ -11612,8 +11750,14 @@
       <c r="J4" s="53" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="N4" s="171" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="172" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15" thickBot="1">
       <c r="A5" s="133" t="b">
         <v>1</v>
       </c>
@@ -11632,10 +11776,10 @@
       <c r="F5" s="99">
         <v>0.19350700000000001</v>
       </c>
-      <c r="G5" s="98">
+      <c r="G5" s="156">
         <v>0.92870799999999998</v>
       </c>
-      <c r="H5" s="99">
+      <c r="H5" s="157">
         <v>7.1291999999999994E-2</v>
       </c>
       <c r="I5" s="98">
@@ -11643,6 +11787,12 @@
       </c>
       <c r="J5" s="99">
         <v>7.1291999999999994E-2</v>
+      </c>
+      <c r="N5" s="173">
+        <v>0.96577400000000002</v>
+      </c>
+      <c r="O5" s="99">
+        <v>3.4225999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" thickBot="1">
@@ -11662,10 +11812,10 @@
       <c r="F6" s="101">
         <v>0.88696699999999995</v>
       </c>
-      <c r="G6" s="100">
+      <c r="G6" s="158">
         <v>0.14021</v>
       </c>
-      <c r="H6" s="101">
+      <c r="H6" s="159">
         <v>0.85979000000000005</v>
       </c>
       <c r="I6" s="100">
@@ -11673,6 +11823,12 @@
       </c>
       <c r="J6" s="101">
         <v>0.86040799999999995</v>
+      </c>
+      <c r="N6" s="173">
+        <v>1.4164E-2</v>
+      </c>
+      <c r="O6" s="99">
+        <v>0.98583600000000005</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -11680,117 +11836,150 @@
       <c r="D7" s="97"/>
       <c r="E7" s="97"/>
       <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
       <c r="I7" s="97"/>
       <c r="J7" s="97"/>
+      <c r="N7" s="174"/>
+      <c r="O7" s="175"/>
     </row>
     <row r="8" spans="1:15" ht="15" thickBot="1">
       <c r="C8" s="97"/>
       <c r="D8" s="97"/>
       <c r="E8" s="97"/>
       <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
       <c r="I8" s="97"/>
       <c r="J8" s="97"/>
-      <c r="O8" s="84"/>
+      <c r="N8" s="174"/>
+      <c r="O8" s="175"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="85" t="s">
         <v>74</v>
       </c>
       <c r="B9" s="86"/>
-      <c r="C9" s="141">
+      <c r="C9" s="139">
         <v>0.86287800000000003</v>
       </c>
-      <c r="D9" s="142"/>
-      <c r="E9" s="141">
+      <c r="D9" s="140"/>
+      <c r="E9" s="139">
         <v>0.88696699999999995</v>
       </c>
-      <c r="F9" s="142"/>
-      <c r="G9" s="143">
+      <c r="F9" s="140"/>
+      <c r="G9" s="161">
         <v>0.85979000000000005</v>
       </c>
-      <c r="H9" s="144"/>
-      <c r="I9" s="143">
+      <c r="H9" s="162"/>
+      <c r="I9" s="141">
         <v>0.86040799999999995</v>
       </c>
-      <c r="J9" s="144"/>
+      <c r="J9" s="142"/>
+      <c r="N9" s="176">
+        <v>0.98583600000000005</v>
+      </c>
+      <c r="O9" s="177"/>
     </row>
     <row r="10" spans="1:15" ht="15" thickBot="1">
       <c r="A10" s="88" t="s">
         <v>75</v>
       </c>
       <c r="B10" s="89"/>
-      <c r="C10" s="145">
+      <c r="C10" s="143">
         <v>7.0456000000000005E-2</v>
       </c>
-      <c r="D10" s="146"/>
-      <c r="E10" s="145">
+      <c r="D10" s="144"/>
+      <c r="E10" s="143">
         <v>0.19350700000000001</v>
       </c>
-      <c r="F10" s="146"/>
-      <c r="G10" s="147">
+      <c r="F10" s="144"/>
+      <c r="G10" s="163">
         <v>7.1291999999999994E-2</v>
       </c>
-      <c r="H10" s="148"/>
-      <c r="I10" s="147">
+      <c r="H10" s="164"/>
+      <c r="I10" s="145">
         <v>7.1291999999999994E-2</v>
       </c>
-      <c r="J10" s="148"/>
+      <c r="J10" s="146"/>
+      <c r="N10" s="178">
+        <v>3.4225999999999999E-2</v>
+      </c>
+      <c r="O10" s="179"/>
     </row>
     <row r="11" spans="1:15">
       <c r="C11" s="97"/>
       <c r="D11" s="97"/>
       <c r="E11" s="97"/>
       <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="160"/>
       <c r="I11" s="97"/>
       <c r="J11" s="97"/>
+      <c r="N11" s="174"/>
+      <c r="O11" s="175"/>
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1">
       <c r="C12" s="97"/>
       <c r="D12" s="97"/>
       <c r="E12" s="97"/>
       <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="108"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="165"/>
       <c r="I12" s="97"/>
       <c r="J12" s="108"/>
+      <c r="N12" s="174"/>
+      <c r="O12" s="180"/>
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1">
       <c r="A13" s="93" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="94"/>
-      <c r="C13" s="137">
+      <c r="C13" s="135">
         <v>0.104389</v>
       </c>
-      <c r="D13" s="138"/>
-      <c r="E13" s="137">
+      <c r="D13" s="136"/>
+      <c r="E13" s="135">
         <v>0.152665</v>
       </c>
-      <c r="F13" s="138"/>
-      <c r="G13" s="139">
+      <c r="F13" s="136"/>
+      <c r="G13" s="166">
         <v>0.10627</v>
       </c>
-      <c r="H13" s="140"/>
-      <c r="I13" s="139">
+      <c r="H13" s="167"/>
+      <c r="I13" s="137">
         <v>0.10595599999999999</v>
       </c>
-      <c r="J13" s="140"/>
+      <c r="J13" s="138"/>
       <c r="L13">
         <f>(I13-C13)/I13*100</f>
         <v>1.4789157763599976</v>
       </c>
+      <c r="N13" s="181">
+        <v>3.3170999999999999E-2</v>
+      </c>
+      <c r="O13" s="182"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="92"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="26">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="I13:J13"/>
@@ -11803,15 +11992,6 @@
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/weatherrankfilter_dbscan.xlsx
+++ b/weatherrankfilter_dbscan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shukl\Documents\GitHub\Daily_Weather\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319D564F-CE11-4FF9-8BB8-98DA35DE98DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208B8F0F-130D-4798-89C3-CF69C8EB72F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="14" xr2:uid="{9165270A-2809-4AF8-982C-0E3B25320FC9}"/>
   </bookViews>
@@ -1404,6 +1404,45 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1482,16 +1521,55 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1518,44 +1596,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1566,48 +1606,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="11" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10376,26 +10374,26 @@
     <row r="2" spans="2:12" ht="15" thickBot="1">
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="123"/>
+      <c r="E2" s="142"/>
       <c r="F2" s="50"/>
-      <c r="J2" s="122" t="s">
+      <c r="J2" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="123"/>
+      <c r="K2" s="142"/>
     </row>
     <row r="3" spans="2:12" ht="14.55" customHeight="1">
-      <c r="D3" s="124" t="s">
+      <c r="D3" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="125"/>
+      <c r="E3" s="144"/>
       <c r="F3" s="51"/>
-      <c r="J3" s="124" t="s">
+      <c r="J3" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="125"/>
+      <c r="K3" s="144"/>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1">
       <c r="D4" s="52" t="s">
@@ -10413,7 +10411,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.55" customHeight="1">
-      <c r="B5" s="118" t="b">
+      <c r="B5" s="137" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="55" t="s">
@@ -10427,10 +10425,10 @@
         <f>D14</f>
         <v>34.4</v>
       </c>
-      <c r="F5" s="120" t="s">
+      <c r="F5" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="118" t="b">
+      <c r="H5" s="137" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="55" t="s">
@@ -10444,12 +10442,12 @@
         <f>D20</f>
         <v>34.9</v>
       </c>
-      <c r="L5" s="120" t="s">
+      <c r="L5" s="139" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="B6" s="119"/>
+      <c r="B6" s="138"/>
       <c r="C6" s="58" t="s">
         <v>56</v>
       </c>
@@ -10461,8 +10459,8 @@
         <f>D15</f>
         <v>124.9</v>
       </c>
-      <c r="F6" s="121"/>
-      <c r="H6" s="119"/>
+      <c r="F6" s="140"/>
+      <c r="H6" s="138"/>
       <c r="I6" s="58" t="s">
         <v>56</v>
       </c>
@@ -10474,7 +10472,7 @@
         <f>D21</f>
         <v>120.8</v>
       </c>
-      <c r="L6" s="121"/>
+      <c r="L6" s="140"/>
     </row>
     <row r="7" spans="2:12" ht="28.8">
       <c r="D7" s="73" t="s">
@@ -10766,10 +10764,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="111" t="s">
+      <c r="G1" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="112"/>
+      <c r="H1" s="131"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2"/>
@@ -10791,10 +10789,10 @@
       <c r="H2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="113" t="s">
+      <c r="I2" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="114"/>
+      <c r="J2" s="133"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="3">
@@ -10820,11 +10818,11 @@
         <f>SUM(D3,D6,D9,D12,D15,D18,D21,D24,D27,D30)/10</f>
         <v>23.824451400000001</v>
       </c>
-      <c r="I3" s="115">
+      <c r="I3" s="134">
         <f>(H3-G3)/H3*100</f>
         <v>3.6842103319113475</v>
       </c>
-      <c r="J3" s="116"/>
+      <c r="J3" s="135"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
@@ -11140,26 +11138,26 @@
     <row r="2" spans="2:12" ht="15" thickBot="1">
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="123"/>
+      <c r="E2" s="142"/>
       <c r="F2" s="50"/>
-      <c r="J2" s="122" t="s">
+      <c r="J2" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="123"/>
+      <c r="K2" s="142"/>
     </row>
     <row r="3" spans="2:12" ht="14.55" customHeight="1">
-      <c r="D3" s="124" t="s">
+      <c r="D3" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="125"/>
+      <c r="E3" s="144"/>
       <c r="F3" s="51"/>
-      <c r="J3" s="124" t="s">
+      <c r="J3" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="125"/>
+      <c r="K3" s="144"/>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1">
       <c r="D4" s="52" t="s">
@@ -11177,7 +11175,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.55" customHeight="1">
-      <c r="B5" s="118" t="b">
+      <c r="B5" s="137" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="55" t="s">
@@ -11191,10 +11189,10 @@
         <f>D14</f>
         <v>34.1</v>
       </c>
-      <c r="F5" s="120" t="s">
+      <c r="F5" s="139" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="118" t="b">
+      <c r="H5" s="137" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="55" t="s">
@@ -11208,12 +11206,12 @@
         <f>D20</f>
         <v>34.9</v>
       </c>
-      <c r="L5" s="120" t="s">
+      <c r="L5" s="139" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="B6" s="119"/>
+      <c r="B6" s="138"/>
       <c r="C6" s="58" t="s">
         <v>56</v>
       </c>
@@ -11225,8 +11223,8 @@
         <f>D15</f>
         <v>121.6</v>
       </c>
-      <c r="F6" s="121"/>
-      <c r="H6" s="119"/>
+      <c r="F6" s="140"/>
+      <c r="H6" s="138"/>
       <c r="I6" s="58" t="s">
         <v>56</v>
       </c>
@@ -11238,7 +11236,7 @@
         <f>D21</f>
         <v>120.8</v>
       </c>
-      <c r="L6" s="121"/>
+      <c r="L6" s="140"/>
     </row>
     <row r="7" spans="2:12" ht="28.8">
       <c r="D7" s="73" t="s">
@@ -11532,30 +11530,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1">
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="145" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="128"/>
-      <c r="G1" s="126" t="s">
+      <c r="C1" s="146"/>
+      <c r="D1" s="147"/>
+      <c r="G1" s="145" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="127"/>
-      <c r="I1" s="128"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="147"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1"/>
     <row r="3" spans="1:14" ht="15" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="129" t="s">
+      <c r="C3" s="148" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="130"/>
+      <c r="D3" s="149"/>
       <c r="E3" s="77"/>
-      <c r="H3" s="131" t="s">
+      <c r="H3" s="150" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="132"/>
+      <c r="I3" s="151"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1">
       <c r="A4" s="76"/>
@@ -11575,7 +11573,7 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="133" t="b">
+      <c r="A5" s="152" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="78" t="s">
@@ -11588,7 +11586,7 @@
       <c r="I5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1">
-      <c r="A6" s="134"/>
+      <c r="A6" s="153"/>
       <c r="B6" s="81" t="s">
         <v>56</v>
       </c>
@@ -11663,7 +11661,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11672,56 +11670,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1">
-      <c r="C1" s="147" t="s">
+      <c r="C1" s="154" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="148"/>
-      <c r="E1" s="147" t="s">
+      <c r="D1" s="155"/>
+      <c r="E1" s="154" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="148"/>
-      <c r="G1" s="149" t="s">
+      <c r="F1" s="155"/>
+      <c r="G1" s="163" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="150"/>
-      <c r="I1" s="147" t="s">
+      <c r="H1" s="164"/>
+      <c r="I1" s="154" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="148"/>
-      <c r="N1" s="147" t="s">
+      <c r="J1" s="155"/>
+      <c r="N1" s="154" t="s">
         <v>86</v>
       </c>
-      <c r="O1" s="148"/>
+      <c r="O1" s="155"/>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1">
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="169"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="119"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="129" t="s">
+      <c r="C3" s="148" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="130"/>
-      <c r="E3" s="129" t="s">
+      <c r="D3" s="149"/>
+      <c r="E3" s="148" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="130"/>
-      <c r="G3" s="152" t="s">
+      <c r="F3" s="149"/>
+      <c r="G3" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="153"/>
-      <c r="I3" s="131" t="s">
+      <c r="H3" s="166"/>
+      <c r="I3" s="150" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="132"/>
-      <c r="N3" s="131" t="s">
+      <c r="J3" s="151"/>
+      <c r="N3" s="150" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="170"/>
+      <c r="O3" s="156"/>
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1">
       <c r="A4" s="76"/>
@@ -11738,10 +11736,10 @@
       <c r="F4" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="154" t="s">
+      <c r="G4" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="155" t="s">
+      <c r="H4" s="111" t="s">
         <v>56</v>
       </c>
       <c r="I4" s="52" t="s">
@@ -11750,85 +11748,85 @@
       <c r="J4" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="N4" s="171" t="s">
+      <c r="N4" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="O4" s="172" t="s">
+      <c r="O4" s="121" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15" thickBot="1">
-      <c r="A5" s="133" t="b">
+      <c r="A5" s="152" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="78" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="98">
-        <v>0.92934399999999995</v>
+        <v>0.894536</v>
       </c>
       <c r="D5" s="99">
-        <v>7.0456000000000005E-2</v>
+        <v>0.105464</v>
       </c>
       <c r="E5" s="98">
-        <v>0.80649300000000002</v>
+        <v>0.776366</v>
       </c>
       <c r="F5" s="99">
-        <v>0.19350700000000001</v>
-      </c>
-      <c r="G5" s="156">
+        <v>0.223634</v>
+      </c>
+      <c r="G5" s="112">
         <v>0.92870799999999998</v>
       </c>
-      <c r="H5" s="157">
+      <c r="H5" s="113">
         <v>7.1291999999999994E-2</v>
       </c>
       <c r="I5" s="98">
-        <v>0.92870799999999998</v>
+        <v>0.89707800000000004</v>
       </c>
       <c r="J5" s="99">
-        <v>7.1291999999999994E-2</v>
-      </c>
-      <c r="N5" s="173">
-        <v>0.96577400000000002</v>
+        <v>0.102922</v>
+      </c>
+      <c r="N5" s="122">
+        <v>0.894536</v>
       </c>
       <c r="O5" s="99">
-        <v>3.4225999999999999E-2</v>
+        <v>0.105464</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" thickBot="1">
-      <c r="A6" s="134"/>
+      <c r="A6" s="153"/>
       <c r="B6" s="81" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="100">
-        <v>0.13712199999999999</v>
+        <v>0.110767</v>
       </c>
       <c r="D6" s="101">
-        <v>0.86287800000000003</v>
+        <v>0.88923300000000005</v>
       </c>
       <c r="E6" s="100">
-        <v>0.11303299999999999</v>
+        <v>9.3440999999999996E-2</v>
       </c>
       <c r="F6" s="101">
-        <v>0.88696699999999995</v>
-      </c>
-      <c r="G6" s="158">
+        <v>0.906559</v>
+      </c>
+      <c r="G6" s="114">
         <v>0.14021</v>
       </c>
-      <c r="H6" s="159">
+      <c r="H6" s="115">
         <v>0.85979000000000005</v>
       </c>
       <c r="I6" s="100">
-        <v>0.13959199999999999</v>
+        <v>0.112624</v>
       </c>
       <c r="J6" s="101">
-        <v>0.86040799999999995</v>
-      </c>
-      <c r="N6" s="173">
-        <v>1.4164E-2</v>
+        <v>0.88737600000000005</v>
+      </c>
+      <c r="N6" s="122">
+        <v>0.13799500000000001</v>
       </c>
       <c r="O6" s="99">
-        <v>0.98583600000000005</v>
+        <v>0.86200500000000002</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -11836,150 +11834,138 @@
       <c r="D7" s="97"/>
       <c r="E7" s="97"/>
       <c r="F7" s="97"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="160"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
       <c r="I7" s="97"/>
       <c r="J7" s="97"/>
-      <c r="N7" s="174"/>
-      <c r="O7" s="175"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="124"/>
     </row>
     <row r="8" spans="1:15" ht="15" thickBot="1">
       <c r="C8" s="97"/>
       <c r="D8" s="97"/>
       <c r="E8" s="97"/>
       <c r="F8" s="97"/>
-      <c r="G8" s="160"/>
-      <c r="H8" s="160"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
       <c r="I8" s="97"/>
       <c r="J8" s="97"/>
-      <c r="N8" s="174"/>
-      <c r="O8" s="175"/>
+      <c r="N8" s="123"/>
+      <c r="O8" s="124"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="85" t="s">
         <v>74</v>
       </c>
       <c r="B9" s="86"/>
-      <c r="C9" s="139">
-        <v>0.86287800000000003</v>
-      </c>
-      <c r="D9" s="140"/>
-      <c r="E9" s="139">
-        <v>0.88696699999999995</v>
-      </c>
-      <c r="F9" s="140"/>
-      <c r="G9" s="161">
+      <c r="C9" s="171">
+        <v>0.88923300000000005</v>
+      </c>
+      <c r="D9" s="172"/>
+      <c r="E9" s="171">
+        <v>0.906559</v>
+      </c>
+      <c r="F9" s="172"/>
+      <c r="G9" s="179">
         <v>0.85979000000000005</v>
       </c>
-      <c r="H9" s="162"/>
-      <c r="I9" s="141">
-        <v>0.86040799999999995</v>
-      </c>
-      <c r="J9" s="142"/>
-      <c r="N9" s="176">
-        <v>0.98583600000000005</v>
-      </c>
-      <c r="O9" s="177"/>
+      <c r="H9" s="180"/>
+      <c r="I9" s="173">
+        <v>0.88737600000000005</v>
+      </c>
+      <c r="J9" s="174"/>
+      <c r="N9" s="157">
+        <v>0.86200500000000002</v>
+      </c>
+      <c r="O9" s="158"/>
     </row>
     <row r="10" spans="1:15" ht="15" thickBot="1">
       <c r="A10" s="88" t="s">
         <v>75</v>
       </c>
       <c r="B10" s="89"/>
-      <c r="C10" s="143">
-        <v>7.0456000000000005E-2</v>
-      </c>
-      <c r="D10" s="144"/>
-      <c r="E10" s="143">
-        <v>0.19350700000000001</v>
-      </c>
-      <c r="F10" s="144"/>
-      <c r="G10" s="163">
+      <c r="C10" s="175">
+        <v>0.105464</v>
+      </c>
+      <c r="D10" s="176"/>
+      <c r="E10" s="175">
+        <v>0.223634</v>
+      </c>
+      <c r="F10" s="176"/>
+      <c r="G10" s="181">
         <v>7.1291999999999994E-2</v>
       </c>
-      <c r="H10" s="164"/>
-      <c r="I10" s="145">
-        <v>7.1291999999999994E-2</v>
-      </c>
-      <c r="J10" s="146"/>
-      <c r="N10" s="178">
-        <v>3.4225999999999999E-2</v>
-      </c>
-      <c r="O10" s="179"/>
+      <c r="H10" s="182"/>
+      <c r="I10" s="177">
+        <v>0.102922</v>
+      </c>
+      <c r="J10" s="178"/>
+      <c r="N10" s="159">
+        <v>0.105464</v>
+      </c>
+      <c r="O10" s="160"/>
     </row>
     <row r="11" spans="1:15">
       <c r="C11" s="97"/>
       <c r="D11" s="97"/>
       <c r="E11" s="97"/>
       <c r="F11" s="97"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="160"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
       <c r="I11" s="97"/>
       <c r="J11" s="97"/>
-      <c r="N11" s="174"/>
-      <c r="O11" s="175"/>
+      <c r="N11" s="123"/>
+      <c r="O11" s="124"/>
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1">
       <c r="C12" s="97"/>
       <c r="D12" s="97"/>
       <c r="E12" s="97"/>
       <c r="F12" s="97"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="165"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="117"/>
       <c r="I12" s="97"/>
       <c r="J12" s="108"/>
-      <c r="N12" s="174"/>
-      <c r="O12" s="180"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="125"/>
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="126" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="135">
-        <v>0.104389</v>
-      </c>
-      <c r="D13" s="136"/>
-      <c r="E13" s="135">
-        <v>0.152665</v>
-      </c>
-      <c r="F13" s="136"/>
-      <c r="G13" s="166">
+      <c r="B13" s="127"/>
+      <c r="C13" s="167">
+        <v>0.10815</v>
+      </c>
+      <c r="D13" s="168"/>
+      <c r="E13" s="167">
+        <v>0.15767999999999999</v>
+      </c>
+      <c r="F13" s="168"/>
+      <c r="G13" s="169">
         <v>0.10627</v>
       </c>
-      <c r="H13" s="167"/>
-      <c r="I13" s="137">
-        <v>0.10595599999999999</v>
-      </c>
-      <c r="J13" s="138"/>
-      <c r="L13">
+      <c r="H13" s="170"/>
+      <c r="I13" s="169">
+        <v>0.107837</v>
+      </c>
+      <c r="J13" s="170"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="109">
         <f>(I13-C13)/I13*100</f>
-        <v>1.4789157763599976</v>
-      </c>
-      <c r="N13" s="181">
-        <v>3.3170999999999999E-2</v>
-      </c>
-      <c r="O13" s="182"/>
+        <v>-0.29025288166398716</v>
+      </c>
+      <c r="M13" s="109"/>
+      <c r="N13" s="161">
+        <v>0.121944</v>
+      </c>
+      <c r="O13" s="162"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G3:H3"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="I13:J13"/>
@@ -11992,6 +11978,20 @@
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N13:O13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24797,10 +24797,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="109" t="s">
+      <c r="G1" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="110"/>
+      <c r="H1" s="129"/>
       <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:16">
@@ -25248,10 +25248,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="109" t="s">
+      <c r="G1" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="110"/>
+      <c r="H1" s="129"/>
       <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:16">
@@ -25701,10 +25701,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="111" t="s">
+      <c r="G1" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="112"/>
+      <c r="H1" s="131"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="2"/>
@@ -25726,10 +25726,10 @@
       <c r="H2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="113" t="s">
+      <c r="I2" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="114"/>
+      <c r="J2" s="133"/>
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1">
       <c r="A3" s="3">
@@ -25755,11 +25755,11 @@
         <f>SUM(D3,D6,D9,D12,D15,D18,D21,D24,D27,D30)/10</f>
         <v>23.824451400000001</v>
       </c>
-      <c r="I3" s="115">
+      <c r="I3" s="134">
         <f>(H3-G3)/H3*100</f>
         <v>8.5526317722472331</v>
       </c>
-      <c r="J3" s="116"/>
+      <c r="J3" s="135"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1">
       <c r="A4" s="1" t="s">
@@ -26163,10 +26163,10 @@
       <c r="C1" s="46"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="117"/>
+      <c r="C2" s="136"/>
       <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:6">
@@ -26198,8 +26198,8 @@
       <c r="F8" s="46"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
       <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:6">

--- a/weatherrankfilter_dbscan.xlsx
+++ b/weatherrankfilter_dbscan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shukl\Documents\GitHub\Daily_Weather\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208B8F0F-130D-4798-89C3-CF69C8EB72F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620735A7-D730-4F65-9E62-0026914DB20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="14" xr2:uid="{9165270A-2809-4AF8-982C-0E3B25320FC9}"/>
   </bookViews>
@@ -28,8 +28,10 @@
     <sheet name="dbscan" sheetId="15" r:id="rId13"/>
     <sheet name="dbscan_clust_l1pca" sheetId="16" r:id="rId14"/>
     <sheet name="knee_l1pca" sheetId="17" r:id="rId15"/>
-    <sheet name="weatherDT%cor" sheetId="5" state="hidden" r:id="rId16"/>
-    <sheet name="weatherSVM%cor" sheetId="6" state="hidden" r:id="rId17"/>
+    <sheet name="Sheet3" sheetId="18" r:id="rId16"/>
+    <sheet name="Sheet4" sheetId="19" r:id="rId17"/>
+    <sheet name="weatherDT%cor" sheetId="5" state="hidden" r:id="rId18"/>
+    <sheet name="weatherSVM%cor" sheetId="6" state="hidden" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="89">
   <si>
     <t>---------split 1 --------------------</t>
   </si>
@@ -631,6 +633,12 @@
   <si>
     <t xml:space="preserve">knee opt </t>
   </si>
+  <si>
+    <t>knee opt</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
 </sst>
 </file>
 
@@ -1176,7 +1184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1379,16 +1387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1411,18 +1410,6 @@
     <xf numFmtId="0" fontId="6" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="10" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
@@ -1443,6 +1430,32 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1527,26 +1540,35 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1572,40 +1594,49 @@
     <xf numFmtId="164" fontId="11" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2575,7 +2606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10374,26 +10405,26 @@
     <row r="2" spans="2:12" ht="15" thickBot="1">
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
-      <c r="D2" s="141" t="s">
+      <c r="D2" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="142"/>
+      <c r="E2" s="145"/>
       <c r="F2" s="50"/>
-      <c r="J2" s="141" t="s">
+      <c r="J2" s="144" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="142"/>
+      <c r="K2" s="145"/>
     </row>
     <row r="3" spans="2:12" ht="14.55" customHeight="1">
-      <c r="D3" s="143" t="s">
+      <c r="D3" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="144"/>
+      <c r="E3" s="147"/>
       <c r="F3" s="51"/>
-      <c r="J3" s="143" t="s">
+      <c r="J3" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="144"/>
+      <c r="K3" s="147"/>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1">
       <c r="D4" s="52" t="s">
@@ -10411,7 +10442,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.55" customHeight="1">
-      <c r="B5" s="137" t="b">
+      <c r="B5" s="140" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="55" t="s">
@@ -10425,10 +10456,10 @@
         <f>D14</f>
         <v>34.4</v>
       </c>
-      <c r="F5" s="139" t="s">
+      <c r="F5" s="142" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="137" t="b">
+      <c r="H5" s="140" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="55" t="s">
@@ -10442,12 +10473,12 @@
         <f>D20</f>
         <v>34.9</v>
       </c>
-      <c r="L5" s="139" t="s">
+      <c r="L5" s="142" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="B6" s="138"/>
+      <c r="B6" s="141"/>
       <c r="C6" s="58" t="s">
         <v>56</v>
       </c>
@@ -10459,8 +10490,8 @@
         <f>D15</f>
         <v>124.9</v>
       </c>
-      <c r="F6" s="140"/>
-      <c r="H6" s="138"/>
+      <c r="F6" s="143"/>
+      <c r="H6" s="141"/>
       <c r="I6" s="58" t="s">
         <v>56</v>
       </c>
@@ -10472,7 +10503,7 @@
         <f>D21</f>
         <v>120.8</v>
       </c>
-      <c r="L6" s="140"/>
+      <c r="L6" s="143"/>
     </row>
     <row r="7" spans="2:12" ht="28.8">
       <c r="D7" s="73" t="s">
@@ -10764,10 +10795,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="130" t="s">
+      <c r="G1" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="131"/>
+      <c r="H1" s="134"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2"/>
@@ -10789,10 +10820,10 @@
       <c r="H2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="132" t="s">
+      <c r="I2" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="133"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="3">
@@ -10818,11 +10849,11 @@
         <f>SUM(D3,D6,D9,D12,D15,D18,D21,D24,D27,D30)/10</f>
         <v>23.824451400000001</v>
       </c>
-      <c r="I3" s="134">
+      <c r="I3" s="137">
         <f>(H3-G3)/H3*100</f>
         <v>3.6842103319113475</v>
       </c>
-      <c r="J3" s="135"/>
+      <c r="J3" s="138"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
@@ -11138,26 +11169,26 @@
     <row r="2" spans="2:12" ht="15" thickBot="1">
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
-      <c r="D2" s="141" t="s">
+      <c r="D2" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="142"/>
+      <c r="E2" s="145"/>
       <c r="F2" s="50"/>
-      <c r="J2" s="141" t="s">
+      <c r="J2" s="144" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="142"/>
+      <c r="K2" s="145"/>
     </row>
     <row r="3" spans="2:12" ht="14.55" customHeight="1">
-      <c r="D3" s="143" t="s">
+      <c r="D3" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="144"/>
+      <c r="E3" s="147"/>
       <c r="F3" s="51"/>
-      <c r="J3" s="143" t="s">
+      <c r="J3" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="144"/>
+      <c r="K3" s="147"/>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1">
       <c r="D4" s="52" t="s">
@@ -11175,7 +11206,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.55" customHeight="1">
-      <c r="B5" s="137" t="b">
+      <c r="B5" s="140" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="55" t="s">
@@ -11189,10 +11220,10 @@
         <f>D14</f>
         <v>34.1</v>
       </c>
-      <c r="F5" s="139" t="s">
+      <c r="F5" s="142" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="137" t="b">
+      <c r="H5" s="140" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="55" t="s">
@@ -11206,12 +11237,12 @@
         <f>D20</f>
         <v>34.9</v>
       </c>
-      <c r="L5" s="139" t="s">
+      <c r="L5" s="142" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="B6" s="138"/>
+      <c r="B6" s="141"/>
       <c r="C6" s="58" t="s">
         <v>56</v>
       </c>
@@ -11223,8 +11254,8 @@
         <f>D15</f>
         <v>121.6</v>
       </c>
-      <c r="F6" s="140"/>
-      <c r="H6" s="138"/>
+      <c r="F6" s="143"/>
+      <c r="H6" s="141"/>
       <c r="I6" s="58" t="s">
         <v>56</v>
       </c>
@@ -11236,7 +11267,7 @@
         <f>D21</f>
         <v>120.8</v>
       </c>
-      <c r="L6" s="140"/>
+      <c r="L6" s="143"/>
     </row>
     <row r="7" spans="2:12" ht="28.8">
       <c r="D7" s="73" t="s">
@@ -11530,30 +11561,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1">
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="148" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="146"/>
-      <c r="D1" s="147"/>
-      <c r="G1" s="145" t="s">
+      <c r="C1" s="149"/>
+      <c r="D1" s="150"/>
+      <c r="G1" s="148" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="146"/>
-      <c r="I1" s="147"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="150"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1"/>
     <row r="3" spans="1:14" ht="15" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="148" t="s">
+      <c r="C3" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="149"/>
+      <c r="D3" s="152"/>
       <c r="E3" s="77"/>
-      <c r="H3" s="150" t="s">
+      <c r="H3" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="151"/>
+      <c r="I3" s="154"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1">
       <c r="A4" s="76"/>
@@ -11573,7 +11604,7 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="152" t="b">
+      <c r="A5" s="155" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="78" t="s">
@@ -11586,7 +11617,7 @@
       <c r="I5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1">
-      <c r="A6" s="153"/>
+      <c r="A6" s="156"/>
       <c r="B6" s="81" t="s">
         <v>56</v>
       </c>
@@ -11604,12 +11635,12 @@
         <v>74</v>
       </c>
       <c r="B9" s="86"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="103"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="100"/>
       <c r="E9" s="97"/>
       <c r="F9" s="97"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="105"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="102"/>
       <c r="I9" s="87"/>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1">
@@ -11617,10 +11648,10 @@
         <v>75</v>
       </c>
       <c r="B10" s="89"/>
-      <c r="C10" s="106"/>
+      <c r="C10" s="103"/>
       <c r="D10" s="90"/>
       <c r="G10" s="89"/>
-      <c r="H10" s="107"/>
+      <c r="H10" s="104"/>
       <c r="I10" s="91"/>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1">
@@ -11658,70 +11689,93 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BF5402-0B55-4FF7-968A-750CFC968FFA}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection sqref="A1:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1">
-      <c r="C1" s="154" t="s">
+    <row r="1" spans="1:19" ht="15" thickBot="1">
+      <c r="C1" s="157" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="155"/>
-      <c r="E1" s="154" t="s">
+      <c r="D1" s="158"/>
+      <c r="E1" s="157" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="155"/>
-      <c r="G1" s="163" t="s">
+      <c r="F1" s="158"/>
+      <c r="G1" s="169" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="164"/>
-      <c r="I1" s="154" t="s">
+      <c r="H1" s="170"/>
+      <c r="I1" s="157" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="158"/>
+      <c r="K1" s="157" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="155"/>
-      <c r="N1" s="154" t="s">
-        <v>86</v>
-      </c>
-      <c r="O1" s="155"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1">
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="119"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" thickBot="1">
+      <c r="L1" s="158"/>
+      <c r="N1" s="157" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" s="158"/>
+      <c r="P1" s="157" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="157" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" s="158"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" thickBot="1">
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="148" t="s">
+      <c r="C3" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="149"/>
-      <c r="E3" s="148" t="s">
+      <c r="D3" s="186"/>
+      <c r="E3" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="149"/>
-      <c r="G3" s="165" t="s">
+      <c r="F3" s="186"/>
+      <c r="G3" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="166"/>
-      <c r="I3" s="150" t="s">
+      <c r="H3" s="172"/>
+      <c r="I3" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="151"/>
-      <c r="N3" s="150" t="s">
+      <c r="J3" s="186"/>
+      <c r="K3" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="156"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1">
+      <c r="L3" s="154"/>
+      <c r="N3" s="151" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="152"/>
+      <c r="P3" s="153" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="154"/>
+      <c r="R3" s="151" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="152"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" thickBot="1">
       <c r="A4" s="76"/>
       <c r="B4" s="76"/>
       <c r="C4" s="52" t="s">
@@ -11736,10 +11790,10 @@
       <c r="F4" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="110" t="s">
+      <c r="G4" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="111" t="s">
+      <c r="H4" s="108" t="s">
         <v>56</v>
       </c>
       <c r="I4" s="52" t="s">
@@ -11748,250 +11802,372 @@
       <c r="J4" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="N4" s="120" t="s">
+      <c r="K4" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="O4" s="121" t="s">
+      <c r="L4" s="53" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1">
-      <c r="A5" s="152" t="b">
+      <c r="N4" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="S4" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="190" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="98">
-        <v>0.894536</v>
-      </c>
-      <c r="D5" s="99">
-        <v>0.105464</v>
-      </c>
-      <c r="E5" s="98">
-        <v>0.776366</v>
-      </c>
-      <c r="F5" s="99">
-        <v>0.223634</v>
-      </c>
-      <c r="G5" s="112">
+      <c r="C5" s="187">
+        <v>0.841804</v>
+      </c>
+      <c r="D5" s="188">
+        <v>0.158196</v>
+      </c>
+      <c r="E5" s="187">
+        <v>0.72299899999999995</v>
+      </c>
+      <c r="F5" s="188">
+        <v>0.277001</v>
+      </c>
+      <c r="G5" s="123">
         <v>0.92870799999999998</v>
       </c>
-      <c r="H5" s="113">
+      <c r="H5" s="124">
         <v>7.1291999999999994E-2</v>
       </c>
-      <c r="I5" s="98">
-        <v>0.89707800000000004</v>
-      </c>
-      <c r="J5" s="99">
-        <v>0.102922</v>
-      </c>
-      <c r="N5" s="122">
-        <v>0.894536</v>
-      </c>
-      <c r="O5" s="99">
-        <v>0.105464</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1">
-      <c r="A6" s="153"/>
+      <c r="I5" s="187">
+        <v>0.84879300000000002</v>
+      </c>
+      <c r="J5" s="188">
+        <v>0.15120700000000001</v>
+      </c>
+      <c r="K5" s="121">
+        <v>0.84434600000000004</v>
+      </c>
+      <c r="L5" s="122">
+        <v>0.15565399999999999</v>
+      </c>
+      <c r="M5" s="129"/>
+      <c r="N5" s="121">
+        <v>0.72744599745870397</v>
+      </c>
+      <c r="O5" s="122">
+        <v>0.27255400254129603</v>
+      </c>
+      <c r="P5" s="121">
+        <v>0.71918700000000002</v>
+      </c>
+      <c r="Q5" s="122">
+        <v>0.28081299999999998</v>
+      </c>
+      <c r="R5" s="121">
+        <v>0.72744599745870397</v>
+      </c>
+      <c r="S5" s="122">
+        <v>0.27255400254129603</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" thickBot="1">
+      <c r="A6" s="191"/>
       <c r="B6" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="100">
-        <v>0.110767</v>
-      </c>
-      <c r="D6" s="101">
-        <v>0.88923300000000005</v>
-      </c>
-      <c r="E6" s="100">
-        <v>9.3440999999999996E-2</v>
-      </c>
-      <c r="F6" s="101">
-        <v>0.906559</v>
-      </c>
-      <c r="G6" s="114">
+      <c r="C6" s="189">
+        <v>5.4455000000000003E-2</v>
+      </c>
+      <c r="D6" s="126">
+        <v>0.94554499999999997</v>
+      </c>
+      <c r="E6" s="189">
+        <v>4.5791999999999999E-2</v>
+      </c>
+      <c r="F6" s="126">
+        <v>0.95420799999999995</v>
+      </c>
+      <c r="G6" s="127">
         <v>0.14021</v>
       </c>
-      <c r="H6" s="115">
+      <c r="H6" s="128">
         <v>0.85979000000000005</v>
       </c>
-      <c r="I6" s="100">
-        <v>0.112624</v>
-      </c>
-      <c r="J6" s="101">
-        <v>0.88737600000000005</v>
-      </c>
-      <c r="N6" s="122">
-        <v>0.13799500000000001</v>
-      </c>
-      <c r="O6" s="99">
-        <v>0.86200500000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="124"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1">
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="N8" s="123"/>
-      <c r="O8" s="124"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="I6" s="189">
+        <v>0.10581699999999999</v>
+      </c>
+      <c r="J6" s="126">
+        <v>0.89418299999999995</v>
+      </c>
+      <c r="K6" s="125">
+        <v>5.5073999999999998E-2</v>
+      </c>
+      <c r="L6" s="126">
+        <v>0.94492600000000004</v>
+      </c>
+      <c r="M6" s="129"/>
+      <c r="N6" s="125">
+        <v>1.7945544554455399E-2</v>
+      </c>
+      <c r="O6" s="126">
+        <v>0.98205445544554404</v>
+      </c>
+      <c r="P6" s="125">
+        <v>1.6088999999999999E-2</v>
+      </c>
+      <c r="Q6" s="126">
+        <v>0.98391099999999998</v>
+      </c>
+      <c r="R6" s="125">
+        <v>1.7945544554455399E-2</v>
+      </c>
+      <c r="S6" s="126">
+        <v>0.98205445544554404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
+      <c r="O7" s="129"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="129"/>
+      <c r="R7" s="129"/>
+      <c r="S7" s="129"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" thickBot="1">
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="129"/>
+      <c r="L8" s="129"/>
+      <c r="M8" s="129"/>
+      <c r="N8" s="129"/>
+      <c r="O8" s="129"/>
+      <c r="P8" s="129"/>
+      <c r="Q8" s="129"/>
+      <c r="R8" s="129"/>
+      <c r="S8" s="129"/>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="85" t="s">
         <v>74</v>
       </c>
       <c r="B9" s="86"/>
-      <c r="C9" s="171">
-        <v>0.88923300000000005</v>
-      </c>
-      <c r="D9" s="172"/>
-      <c r="E9" s="171">
-        <v>0.906559</v>
-      </c>
-      <c r="F9" s="172"/>
-      <c r="G9" s="179">
+      <c r="C9" s="159">
+        <v>0.94554499999999997</v>
+      </c>
+      <c r="D9" s="160"/>
+      <c r="E9" s="159">
+        <v>0.95420799999999995</v>
+      </c>
+      <c r="F9" s="160"/>
+      <c r="G9" s="177">
         <v>0.85979000000000005</v>
       </c>
-      <c r="H9" s="180"/>
-      <c r="I9" s="173">
-        <v>0.88737600000000005</v>
-      </c>
-      <c r="J9" s="174"/>
-      <c r="N9" s="157">
-        <v>0.86200500000000002</v>
-      </c>
-      <c r="O9" s="158"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1">
+      <c r="H9" s="178"/>
+      <c r="I9" s="159">
+        <v>0.89418299999999995</v>
+      </c>
+      <c r="J9" s="160"/>
+      <c r="K9" s="164">
+        <v>0.94492600000000004</v>
+      </c>
+      <c r="L9" s="165"/>
+      <c r="M9" s="129"/>
+      <c r="N9" s="159">
+        <v>0.98205445544554404</v>
+      </c>
+      <c r="O9" s="160"/>
+      <c r="P9" s="164">
+        <v>0.98391099999999998</v>
+      </c>
+      <c r="Q9" s="165"/>
+      <c r="R9" s="159">
+        <v>0.98205445544554404</v>
+      </c>
+      <c r="S9" s="160"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" thickBot="1">
       <c r="A10" s="88" t="s">
         <v>75</v>
       </c>
       <c r="B10" s="89"/>
-      <c r="C10" s="175">
-        <v>0.105464</v>
-      </c>
-      <c r="D10" s="176"/>
-      <c r="E10" s="175">
-        <v>0.223634</v>
-      </c>
-      <c r="F10" s="176"/>
-      <c r="G10" s="181">
+      <c r="C10" s="161">
+        <v>0.158196</v>
+      </c>
+      <c r="D10" s="162"/>
+      <c r="E10" s="161">
+        <v>0.277001</v>
+      </c>
+      <c r="F10" s="162"/>
+      <c r="G10" s="179">
         <v>7.1291999999999994E-2</v>
       </c>
-      <c r="H10" s="182"/>
-      <c r="I10" s="177">
-        <v>0.102922</v>
-      </c>
-      <c r="J10" s="178"/>
-      <c r="N10" s="159">
-        <v>0.105464</v>
-      </c>
-      <c r="O10" s="160"/>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="H10" s="180"/>
+      <c r="I10" s="161">
+        <v>0.15120700000000001</v>
+      </c>
+      <c r="J10" s="162"/>
+      <c r="K10" s="166">
+        <v>0.15565399999999999</v>
+      </c>
+      <c r="L10" s="167"/>
+      <c r="M10" s="129"/>
+      <c r="N10" s="161">
+        <v>0.27255400254129603</v>
+      </c>
+      <c r="O10" s="162"/>
+      <c r="P10" s="166">
+        <v>0.28081299999999998</v>
+      </c>
+      <c r="Q10" s="167"/>
+      <c r="R10" s="161">
+        <v>0.27255400254129603</v>
+      </c>
+      <c r="S10" s="162"/>
+    </row>
+    <row r="11" spans="1:19">
       <c r="C11" s="97"/>
       <c r="D11" s="97"/>
       <c r="E11" s="97"/>
       <c r="F11" s="97"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
       <c r="I11" s="97"/>
       <c r="J11" s="97"/>
-      <c r="N11" s="123"/>
-      <c r="O11" s="124"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1">
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" thickBot="1">
       <c r="C12" s="97"/>
       <c r="D12" s="97"/>
       <c r="E12" s="97"/>
       <c r="F12" s="97"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="117"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="110"/>
       <c r="I12" s="97"/>
-      <c r="J12" s="108"/>
-      <c r="N12" s="123"/>
-      <c r="O12" s="125"/>
-    </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1">
-      <c r="A13" s="126" t="s">
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="105"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" thickBot="1">
+      <c r="A13" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="127"/>
-      <c r="C13" s="167">
+      <c r="B13" s="120"/>
+      <c r="C13" s="173">
         <v>0.10815</v>
       </c>
-      <c r="D13" s="168"/>
-      <c r="E13" s="167">
+      <c r="D13" s="174"/>
+      <c r="E13" s="173">
         <v>0.15767999999999999</v>
       </c>
-      <c r="F13" s="168"/>
-      <c r="G13" s="169">
+      <c r="F13" s="174"/>
+      <c r="G13" s="175">
         <v>0.10627</v>
       </c>
-      <c r="H13" s="170"/>
-      <c r="I13" s="169">
+      <c r="H13" s="176"/>
+      <c r="I13" s="173">
+        <v>0.121944</v>
+      </c>
+      <c r="J13" s="174"/>
+      <c r="K13" s="175">
         <v>0.107837</v>
       </c>
-      <c r="J13" s="170"/>
-      <c r="K13" s="109"/>
-      <c r="L13" s="109">
-        <f>(I13-C13)/I13*100</f>
-        <v>-0.29025288166398716</v>
-      </c>
-      <c r="M13" s="109"/>
-      <c r="N13" s="161">
-        <v>0.121944</v>
-      </c>
-      <c r="O13" s="162"/>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="L13" s="176"/>
+      <c r="N13" s="163" t="s">
+        <v>88</v>
+      </c>
+      <c r="O13" s="163"/>
+      <c r="P13" s="163"/>
+      <c r="Q13" s="163"/>
+      <c r="R13" s="163"/>
+      <c r="S13" s="163"/>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="92"/>
     </row>
+    <row r="20" spans="14:15" ht="15" thickBot="1"/>
+    <row r="21" spans="14:15">
+      <c r="N21" s="164"/>
+      <c r="O21" s="165"/>
+    </row>
+    <row r="22" spans="14:15" ht="15" thickBot="1">
+      <c r="N22" s="166"/>
+      <c r="O22" s="167"/>
+    </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="41">
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="N13:S13"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11999,6 +12175,363 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7051C07E-0624-451E-8384-94FF678A78E0}">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15" thickBot="1">
+      <c r="C1" s="157" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="158"/>
+      <c r="E1" s="157" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="158"/>
+      <c r="G1" s="169" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="170"/>
+      <c r="I1" s="157" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="158"/>
+      <c r="N1" s="157" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" s="158"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" thickBot="1">
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="112"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" thickBot="1">
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="151" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="152"/>
+      <c r="E3" s="151" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="152"/>
+      <c r="G3" s="171" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="172"/>
+      <c r="I3" s="153" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="154"/>
+      <c r="N3" s="153" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="168"/>
+    </row>
+    <row r="4" spans="1:15" ht="15" thickBot="1">
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="107" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="108" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="113" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="114" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15" thickBot="1">
+      <c r="A5" s="155" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="121">
+        <v>0.89580700000000002</v>
+      </c>
+      <c r="D5" s="122">
+        <v>0.10419299999999999</v>
+      </c>
+      <c r="E5" s="121">
+        <v>0.77954299999999999</v>
+      </c>
+      <c r="F5" s="122">
+        <v>0.22045699999999999</v>
+      </c>
+      <c r="G5" s="123">
+        <v>0.92870799999999998</v>
+      </c>
+      <c r="H5" s="124">
+        <v>7.1291999999999994E-2</v>
+      </c>
+      <c r="I5" s="121">
+        <v>0.89707800000000004</v>
+      </c>
+      <c r="J5" s="122">
+        <v>0.102922</v>
+      </c>
+      <c r="N5" s="115">
+        <v>0.88437100000000002</v>
+      </c>
+      <c r="O5" s="98">
+        <v>0.115629</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" thickBot="1">
+      <c r="A6" s="156"/>
+      <c r="B6" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="125">
+        <v>0.110767</v>
+      </c>
+      <c r="D6" s="126">
+        <v>0.88923300000000005</v>
+      </c>
+      <c r="E6" s="125">
+        <v>9.0346999999999997E-2</v>
+      </c>
+      <c r="F6" s="126">
+        <v>0.90965300000000004</v>
+      </c>
+      <c r="G6" s="127">
+        <v>0.14021</v>
+      </c>
+      <c r="H6" s="128">
+        <v>0.85979000000000005</v>
+      </c>
+      <c r="I6" s="125">
+        <v>0.112624</v>
+      </c>
+      <c r="J6" s="126">
+        <v>0.88737600000000005</v>
+      </c>
+      <c r="N6" s="115">
+        <v>0.13490099999999999</v>
+      </c>
+      <c r="O6" s="98">
+        <v>0.86509899999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="117"/>
+    </row>
+    <row r="8" spans="1:15" ht="15" thickBot="1">
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="129"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="117"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="86"/>
+      <c r="C9" s="159">
+        <v>0.88923300000000005</v>
+      </c>
+      <c r="D9" s="160"/>
+      <c r="E9" s="159">
+        <v>0.90965300000000004</v>
+      </c>
+      <c r="F9" s="160"/>
+      <c r="G9" s="177">
+        <v>0.85979000000000005</v>
+      </c>
+      <c r="H9" s="178"/>
+      <c r="I9" s="164">
+        <v>0.88737600000000005</v>
+      </c>
+      <c r="J9" s="165"/>
+      <c r="N9" s="183">
+        <v>0.86509899999999995</v>
+      </c>
+      <c r="O9" s="184"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" thickBot="1">
+      <c r="A10" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="89"/>
+      <c r="C10" s="161">
+        <v>0.10419299999999999</v>
+      </c>
+      <c r="D10" s="162"/>
+      <c r="E10" s="161">
+        <v>0.22045699999999999</v>
+      </c>
+      <c r="F10" s="162"/>
+      <c r="G10" s="179">
+        <v>7.1291999999999994E-2</v>
+      </c>
+      <c r="H10" s="180"/>
+      <c r="I10" s="166">
+        <v>0.102922</v>
+      </c>
+      <c r="J10" s="167"/>
+      <c r="N10" s="181">
+        <v>0.115629</v>
+      </c>
+      <c r="O10" s="182"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="N11" s="116"/>
+      <c r="O11" s="117"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="105"/>
+      <c r="N12" s="116"/>
+      <c r="O12" s="118"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="N10:O10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C628C7D-851D-44B4-A1BB-C8085118862A}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0.72744599745870397</v>
+      </c>
+      <c r="C1">
+        <v>0.27255400254129603</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1.7945544554455399E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.98205445544554404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.98205445544554404</v>
+      </c>
+      <c r="C3">
+        <v>1.7945544554455399E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.72744599745870397</v>
+      </c>
+      <c r="C4">
+        <v>0.27255400254129603</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765A0386-4415-4EA4-8432-46269E7FD37D}">
   <dimension ref="A1:AD100"/>
   <sheetViews>
@@ -15882,7 +16415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E44AA6-5C29-4F1A-90A3-F2DA20FD2287}">
   <dimension ref="A1:AD100"/>
   <sheetViews>
@@ -24797,10 +25330,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="128" t="s">
+      <c r="G1" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="129"/>
+      <c r="H1" s="132"/>
       <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:16">
@@ -25248,10 +25781,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="128" t="s">
+      <c r="G1" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="129"/>
+      <c r="H1" s="132"/>
       <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:16">
@@ -25701,10 +26234,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="130" t="s">
+      <c r="G1" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="131"/>
+      <c r="H1" s="134"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="2"/>
@@ -25726,10 +26259,10 @@
       <c r="H2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="132" t="s">
+      <c r="I2" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="133"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1">
       <c r="A3" s="3">
@@ -25755,11 +26288,11 @@
         <f>SUM(D3,D6,D9,D12,D15,D18,D21,D24,D27,D30)/10</f>
         <v>23.824451400000001</v>
       </c>
-      <c r="I3" s="134">
+      <c r="I3" s="137">
         <f>(H3-G3)/H3*100</f>
         <v>8.5526317722472331</v>
       </c>
-      <c r="J3" s="135"/>
+      <c r="J3" s="138"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1">
       <c r="A4" s="1" t="s">
@@ -26163,10 +26696,10 @@
       <c r="C1" s="46"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="136"/>
+      <c r="C2" s="139"/>
       <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:6">
@@ -26198,8 +26731,8 @@
       <c r="F8" s="46"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
       <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:6">

--- a/weatherrankfilter_dbscan.xlsx
+++ b/weatherrankfilter_dbscan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shukl\Documents\GitHub\Daily_Weather\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620735A7-D730-4F65-9E62-0026914DB20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CD30C9-EEF7-496A-9A21-CED78F93874B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="14" xr2:uid="{9165270A-2809-4AF8-982C-0E3B25320FC9}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="93">
   <si>
     <t>---------split 1 --------------------</t>
   </si>
@@ -639,6 +639,18 @@
   <si>
     <t>diff</t>
   </si>
+  <si>
+    <t>l1 knee error</t>
+  </si>
+  <si>
+    <t>l1 20% excision</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> knee angle opt rank</t>
+  </si>
+  <si>
+    <t>knee opt rank error</t>
+  </si>
 </sst>
 </file>
 
@@ -723,7 +735,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -823,6 +835,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,7 +1202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1456,6 +1474,35 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="18" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1534,41 +1581,65 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="18" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="18" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="18" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="18" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1582,17 +1653,29 @@
     <xf numFmtId="0" fontId="4" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1606,6 +1689,18 @@
     <xf numFmtId="2" fontId="0" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1618,26 +1713,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10405,26 +10482,26 @@
     <row r="2" spans="2:12" ht="15" thickBot="1">
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
-      <c r="D2" s="144" t="s">
+      <c r="D2" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="145"/>
+      <c r="E2" s="156"/>
       <c r="F2" s="50"/>
-      <c r="J2" s="144" t="s">
+      <c r="J2" s="155" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="145"/>
+      <c r="K2" s="156"/>
     </row>
     <row r="3" spans="2:12" ht="14.55" customHeight="1">
-      <c r="D3" s="146" t="s">
+      <c r="D3" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="147"/>
+      <c r="E3" s="158"/>
       <c r="F3" s="51"/>
-      <c r="J3" s="146" t="s">
+      <c r="J3" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="147"/>
+      <c r="K3" s="158"/>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1">
       <c r="D4" s="52" t="s">
@@ -10442,7 +10519,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.55" customHeight="1">
-      <c r="B5" s="140" t="b">
+      <c r="B5" s="151" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="55" t="s">
@@ -10456,10 +10533,10 @@
         <f>D14</f>
         <v>34.4</v>
       </c>
-      <c r="F5" s="142" t="s">
+      <c r="F5" s="153" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="140" t="b">
+      <c r="H5" s="151" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="55" t="s">
@@ -10473,12 +10550,12 @@
         <f>D20</f>
         <v>34.9</v>
       </c>
-      <c r="L5" s="142" t="s">
+      <c r="L5" s="153" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="B6" s="141"/>
+      <c r="B6" s="152"/>
       <c r="C6" s="58" t="s">
         <v>56</v>
       </c>
@@ -10490,8 +10567,8 @@
         <f>D15</f>
         <v>124.9</v>
       </c>
-      <c r="F6" s="143"/>
-      <c r="H6" s="141"/>
+      <c r="F6" s="154"/>
+      <c r="H6" s="152"/>
       <c r="I6" s="58" t="s">
         <v>56</v>
       </c>
@@ -10503,7 +10580,7 @@
         <f>D21</f>
         <v>120.8</v>
       </c>
-      <c r="L6" s="143"/>
+      <c r="L6" s="154"/>
     </row>
     <row r="7" spans="2:12" ht="28.8">
       <c r="D7" s="73" t="s">
@@ -10795,10 +10872,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="133" t="s">
+      <c r="G1" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="134"/>
+      <c r="H1" s="145"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2"/>
@@ -10820,10 +10897,10 @@
       <c r="H2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="135" t="s">
+      <c r="I2" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="136"/>
+      <c r="J2" s="147"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="3">
@@ -10849,11 +10926,11 @@
         <f>SUM(D3,D6,D9,D12,D15,D18,D21,D24,D27,D30)/10</f>
         <v>23.824451400000001</v>
       </c>
-      <c r="I3" s="137">
+      <c r="I3" s="148">
         <f>(H3-G3)/H3*100</f>
         <v>3.6842103319113475</v>
       </c>
-      <c r="J3" s="138"/>
+      <c r="J3" s="149"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
@@ -11169,26 +11246,26 @@
     <row r="2" spans="2:12" ht="15" thickBot="1">
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
-      <c r="D2" s="144" t="s">
+      <c r="D2" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="145"/>
+      <c r="E2" s="156"/>
       <c r="F2" s="50"/>
-      <c r="J2" s="144" t="s">
+      <c r="J2" s="155" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="145"/>
+      <c r="K2" s="156"/>
     </row>
     <row r="3" spans="2:12" ht="14.55" customHeight="1">
-      <c r="D3" s="146" t="s">
+      <c r="D3" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="147"/>
+      <c r="E3" s="158"/>
       <c r="F3" s="51"/>
-      <c r="J3" s="146" t="s">
+      <c r="J3" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="147"/>
+      <c r="K3" s="158"/>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1">
       <c r="D4" s="52" t="s">
@@ -11206,7 +11283,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.55" customHeight="1">
-      <c r="B5" s="140" t="b">
+      <c r="B5" s="151" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="55" t="s">
@@ -11220,10 +11297,10 @@
         <f>D14</f>
         <v>34.1</v>
       </c>
-      <c r="F5" s="142" t="s">
+      <c r="F5" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="140" t="b">
+      <c r="H5" s="151" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="55" t="s">
@@ -11237,12 +11314,12 @@
         <f>D20</f>
         <v>34.9</v>
       </c>
-      <c r="L5" s="142" t="s">
+      <c r="L5" s="153" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="B6" s="141"/>
+      <c r="B6" s="152"/>
       <c r="C6" s="58" t="s">
         <v>56</v>
       </c>
@@ -11254,8 +11331,8 @@
         <f>D15</f>
         <v>121.6</v>
       </c>
-      <c r="F6" s="143"/>
-      <c r="H6" s="141"/>
+      <c r="F6" s="154"/>
+      <c r="H6" s="152"/>
       <c r="I6" s="58" t="s">
         <v>56</v>
       </c>
@@ -11267,7 +11344,7 @@
         <f>D21</f>
         <v>120.8</v>
       </c>
-      <c r="L6" s="143"/>
+      <c r="L6" s="154"/>
     </row>
     <row r="7" spans="2:12" ht="28.8">
       <c r="D7" s="73" t="s">
@@ -11561,30 +11638,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1">
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="159" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="150"/>
-      <c r="G1" s="148" t="s">
+      <c r="C1" s="160"/>
+      <c r="D1" s="161"/>
+      <c r="G1" s="159" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="149"/>
-      <c r="I1" s="150"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="161"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1"/>
     <row r="3" spans="1:14" ht="15" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="151" t="s">
+      <c r="C3" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="152"/>
+      <c r="D3" s="163"/>
       <c r="E3" s="77"/>
-      <c r="H3" s="153" t="s">
+      <c r="H3" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="154"/>
+      <c r="I3" s="165"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1">
       <c r="A4" s="76"/>
@@ -11604,7 +11681,7 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="155" t="b">
+      <c r="A5" s="166" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="78" t="s">
@@ -11617,7 +11694,7 @@
       <c r="I5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1">
-      <c r="A6" s="156"/>
+      <c r="A6" s="167"/>
       <c r="B6" s="81" t="s">
         <v>56</v>
       </c>
@@ -11689,10 +11766,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BF5402-0B55-4FF7-968A-750CFC968FFA}">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11701,81 +11778,95 @@
     <col min="7" max="8" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1">
-      <c r="C1" s="157" t="s">
+    <row r="1" spans="1:21" ht="15" thickBot="1">
+      <c r="C1" s="186" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="187"/>
+      <c r="E1" s="186" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="187"/>
+      <c r="G1" s="188" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="189"/>
+      <c r="I1" s="186" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="187"/>
+      <c r="K1" s="186" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="187"/>
+      <c r="M1" s="186" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" s="187"/>
+      <c r="P1" s="168" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="158"/>
-      <c r="E1" s="157" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="158"/>
-      <c r="G1" s="169" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="170"/>
-      <c r="I1" s="157" t="s">
-        <v>86</v>
-      </c>
-      <c r="J1" s="158"/>
-      <c r="K1" s="157" t="s">
+      <c r="Q1" s="169"/>
+      <c r="R1" s="168" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="158"/>
-      <c r="N1" s="157" t="s">
-        <v>85</v>
-      </c>
-      <c r="O1" s="158"/>
-      <c r="P1" s="157" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q1" s="158"/>
-      <c r="R1" s="157" t="s">
+      <c r="S1" s="169"/>
+      <c r="T1" s="168" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="158"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1">
+      <c r="U1" s="169"/>
+    </row>
+    <row r="2" spans="1:21" ht="15" thickBot="1">
       <c r="G2" s="106"/>
       <c r="H2" s="106"/>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1">
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="185" t="s">
+      <c r="C3" s="182" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="186"/>
-      <c r="E3" s="185" t="s">
+      <c r="D3" s="183"/>
+      <c r="E3" s="182" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="186"/>
-      <c r="G3" s="171" t="s">
+      <c r="F3" s="183"/>
+      <c r="G3" s="190" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="172"/>
-      <c r="I3" s="185" t="s">
+      <c r="H3" s="191"/>
+      <c r="I3" s="182" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="186"/>
-      <c r="K3" s="153" t="s">
+      <c r="J3" s="183"/>
+      <c r="K3" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="154"/>
-      <c r="N3" s="151" t="s">
+      <c r="L3" s="165"/>
+      <c r="M3" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="152"/>
-      <c r="P3" s="153" t="s">
+      <c r="N3" s="165"/>
+      <c r="P3" s="170" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="154"/>
-      <c r="R3" s="151" t="s">
+      <c r="Q3" s="171"/>
+      <c r="R3" s="170" t="s">
         <v>45</v>
       </c>
-      <c r="S3" s="152"/>
-    </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1">
+      <c r="S3" s="177"/>
+      <c r="T3" s="170" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" s="171"/>
+    </row>
+    <row r="4" spans="1:21" ht="15" thickBot="1">
       <c r="A4" s="76"/>
       <c r="B4" s="76"/>
       <c r="C4" s="52" t="s">
@@ -11808,43 +11899,49 @@
       <c r="L4" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="N4" s="52" t="s">
+      <c r="M4" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="O4" s="53" t="s">
+      <c r="N4" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="P4" s="52" t="s">
+      <c r="P4" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="53" t="s">
+      <c r="Q4" s="136" t="s">
         <v>56</v>
       </c>
-      <c r="R4" s="52" t="s">
+      <c r="R4" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="S4" s="53" t="s">
+      <c r="S4" s="136" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="190" t="b">
+      <c r="T4" s="135" t="s">
+        <v>55</v>
+      </c>
+      <c r="U4" s="136" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="184" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="187">
-        <v>0.841804</v>
-      </c>
-      <c r="D5" s="188">
-        <v>0.158196</v>
-      </c>
-      <c r="E5" s="187">
-        <v>0.72299899999999995</v>
-      </c>
-      <c r="F5" s="188">
-        <v>0.277001</v>
+      <c r="C5" s="131">
+        <v>0.87293500000000002</v>
+      </c>
+      <c r="D5" s="132">
+        <v>0.12706500000000001</v>
+      </c>
+      <c r="E5" s="131">
+        <v>0.746506</v>
+      </c>
+      <c r="F5" s="132">
+        <v>0.253494</v>
       </c>
       <c r="G5" s="123">
         <v>0.92870799999999998</v>
@@ -11852,54 +11949,60 @@
       <c r="H5" s="124">
         <v>7.1291999999999994E-2</v>
       </c>
-      <c r="I5" s="187">
-        <v>0.84879300000000002</v>
-      </c>
-      <c r="J5" s="188">
-        <v>0.15120700000000001</v>
+      <c r="I5" s="131">
+        <v>0.87865300000000002</v>
+      </c>
+      <c r="J5" s="132">
+        <v>0.121347</v>
       </c>
       <c r="K5" s="121">
-        <v>0.84434600000000004</v>
+        <v>0.87484099999999998</v>
       </c>
       <c r="L5" s="122">
-        <v>0.15565399999999999</v>
-      </c>
-      <c r="M5" s="129"/>
-      <c r="N5" s="121">
+        <v>0.12515899999999999</v>
+      </c>
+      <c r="M5" s="121">
+        <v>0.87357099999999999</v>
+      </c>
+      <c r="N5" s="122">
+        <v>0.12642900000000001</v>
+      </c>
+      <c r="O5" s="129"/>
+      <c r="P5" s="137">
         <v>0.72744599745870397</v>
       </c>
-      <c r="O5" s="122">
+      <c r="Q5" s="138">
         <v>0.27255400254129603</v>
       </c>
-      <c r="P5" s="121">
+      <c r="R5" s="137">
         <v>0.71918700000000002</v>
       </c>
-      <c r="Q5" s="122">
+      <c r="S5" s="138">
         <v>0.28081299999999998</v>
       </c>
-      <c r="R5" s="121">
+      <c r="T5" s="137">
         <v>0.72744599745870397</v>
       </c>
-      <c r="S5" s="122">
+      <c r="U5" s="138">
         <v>0.27255400254129603</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1">
-      <c r="A6" s="191"/>
+    <row r="6" spans="1:21" ht="15" thickBot="1">
+      <c r="A6" s="185"/>
       <c r="B6" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="189">
-        <v>5.4455000000000003E-2</v>
+      <c r="C6" s="133">
+        <v>7.3638999999999996E-2</v>
       </c>
       <c r="D6" s="126">
-        <v>0.94554499999999997</v>
-      </c>
-      <c r="E6" s="189">
-        <v>4.5791999999999999E-2</v>
+        <v>0.92636099999999999</v>
+      </c>
+      <c r="E6" s="133">
+        <v>7.3638999999999996E-2</v>
       </c>
       <c r="F6" s="126">
-        <v>0.95420799999999995</v>
+        <v>0.92636099999999999</v>
       </c>
       <c r="G6" s="127">
         <v>0.14021</v>
@@ -11907,39 +12010,45 @@
       <c r="H6" s="128">
         <v>0.85979000000000005</v>
       </c>
-      <c r="I6" s="189">
-        <v>0.10581699999999999</v>
+      <c r="I6" s="133">
+        <v>0.10396</v>
       </c>
       <c r="J6" s="126">
-        <v>0.89418299999999995</v>
+        <v>0.89603999999999995</v>
       </c>
       <c r="K6" s="125">
-        <v>5.5073999999999998E-2</v>
+        <v>7.1781999999999999E-2</v>
       </c>
       <c r="L6" s="126">
-        <v>0.94492600000000004</v>
-      </c>
-      <c r="M6" s="129"/>
-      <c r="N6" s="125">
+        <v>0.92821799999999999</v>
+      </c>
+      <c r="M6" s="125">
+        <v>8.0446000000000004E-2</v>
+      </c>
+      <c r="N6" s="126">
+        <v>0.91955399999999998</v>
+      </c>
+      <c r="O6" s="129"/>
+      <c r="P6" s="139">
         <v>1.7945544554455399E-2</v>
       </c>
-      <c r="O6" s="126">
+      <c r="Q6" s="140">
         <v>0.98205445544554404</v>
       </c>
-      <c r="P6" s="125">
+      <c r="R6" s="139">
         <v>1.6088999999999999E-2</v>
       </c>
-      <c r="Q6" s="126">
+      <c r="S6" s="140">
         <v>0.98391099999999998</v>
       </c>
-      <c r="R6" s="125">
+      <c r="T6" s="139">
         <v>1.7945544554455399E-2</v>
       </c>
-      <c r="S6" s="126">
+      <c r="U6" s="140">
         <v>0.98205445544554404</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:21">
       <c r="C7" s="129"/>
       <c r="D7" s="129"/>
       <c r="E7" s="129"/>
@@ -11953,12 +12062,14 @@
       <c r="M7" s="129"/>
       <c r="N7" s="129"/>
       <c r="O7" s="129"/>
-      <c r="P7" s="129"/>
-      <c r="Q7" s="129"/>
-      <c r="R7" s="129"/>
-      <c r="S7" s="129"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" thickBot="1">
+      <c r="P7" s="141"/>
+      <c r="Q7" s="141"/>
+      <c r="R7" s="141"/>
+      <c r="S7" s="141"/>
+      <c r="T7" s="141"/>
+      <c r="U7" s="141"/>
+    </row>
+    <row r="8" spans="1:21" ht="15" thickBot="1">
       <c r="C8" s="129"/>
       <c r="D8" s="129"/>
       <c r="E8" s="129"/>
@@ -11972,90 +12083,100 @@
       <c r="M8" s="129"/>
       <c r="N8" s="129"/>
       <c r="O8" s="129"/>
-      <c r="P8" s="129"/>
-      <c r="Q8" s="129"/>
-      <c r="R8" s="129"/>
-      <c r="S8" s="129"/>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="P8" s="141"/>
+      <c r="Q8" s="141"/>
+      <c r="R8" s="141"/>
+      <c r="S8" s="141"/>
+      <c r="T8" s="141"/>
+      <c r="U8" s="141"/>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="85" t="s">
         <v>74</v>
       </c>
       <c r="B9" s="86"/>
-      <c r="C9" s="159">
-        <v>0.94554499999999997</v>
-      </c>
-      <c r="D9" s="160"/>
-      <c r="E9" s="159">
-        <v>0.95420799999999995</v>
-      </c>
-      <c r="F9" s="160"/>
-      <c r="G9" s="177">
+      <c r="C9" s="192">
+        <v>0.92636099999999999</v>
+      </c>
+      <c r="D9" s="193"/>
+      <c r="E9" s="192">
+        <v>0.92636099999999999</v>
+      </c>
+      <c r="F9" s="193"/>
+      <c r="G9" s="200">
         <v>0.85979000000000005</v>
       </c>
-      <c r="H9" s="178"/>
-      <c r="I9" s="159">
-        <v>0.89418299999999995</v>
-      </c>
-      <c r="J9" s="160"/>
-      <c r="K9" s="164">
-        <v>0.94492600000000004</v>
-      </c>
-      <c r="L9" s="165"/>
-      <c r="M9" s="129"/>
-      <c r="N9" s="159">
+      <c r="H9" s="201"/>
+      <c r="I9" s="192">
+        <v>0.89603999999999995</v>
+      </c>
+      <c r="J9" s="193"/>
+      <c r="K9" s="194">
+        <v>0.92821799999999999</v>
+      </c>
+      <c r="L9" s="195"/>
+      <c r="M9" s="194">
+        <v>0.91955399999999998</v>
+      </c>
+      <c r="N9" s="195"/>
+      <c r="O9" s="129"/>
+      <c r="P9" s="172">
         <v>0.98205445544554404</v>
       </c>
-      <c r="O9" s="160"/>
-      <c r="P9" s="164">
+      <c r="Q9" s="173"/>
+      <c r="R9" s="178">
         <v>0.98391099999999998</v>
       </c>
-      <c r="Q9" s="165"/>
-      <c r="R9" s="159">
+      <c r="S9" s="179"/>
+      <c r="T9" s="172">
         <v>0.98205445544554404</v>
       </c>
-      <c r="S9" s="160"/>
-    </row>
-    <row r="10" spans="1:19" ht="15" thickBot="1">
+      <c r="U9" s="173"/>
+    </row>
+    <row r="10" spans="1:21" ht="15" thickBot="1">
       <c r="A10" s="88" t="s">
         <v>75</v>
       </c>
       <c r="B10" s="89"/>
-      <c r="C10" s="161">
-        <v>0.158196</v>
-      </c>
-      <c r="D10" s="162"/>
-      <c r="E10" s="161">
-        <v>0.277001</v>
-      </c>
-      <c r="F10" s="162"/>
-      <c r="G10" s="179">
+      <c r="C10" s="196">
+        <v>0.12706500000000001</v>
+      </c>
+      <c r="D10" s="197"/>
+      <c r="E10" s="196">
+        <v>0.253494</v>
+      </c>
+      <c r="F10" s="197"/>
+      <c r="G10" s="202">
         <v>7.1291999999999994E-2</v>
       </c>
-      <c r="H10" s="180"/>
-      <c r="I10" s="161">
-        <v>0.15120700000000001</v>
-      </c>
-      <c r="J10" s="162"/>
-      <c r="K10" s="166">
-        <v>0.15565399999999999</v>
-      </c>
-      <c r="L10" s="167"/>
-      <c r="M10" s="129"/>
-      <c r="N10" s="161">
+      <c r="H10" s="203"/>
+      <c r="I10" s="196">
+        <v>0.121347</v>
+      </c>
+      <c r="J10" s="197"/>
+      <c r="K10" s="198">
+        <v>0.12515899999999999</v>
+      </c>
+      <c r="L10" s="199"/>
+      <c r="M10" s="198">
+        <v>0.12642900000000001</v>
+      </c>
+      <c r="N10" s="199"/>
+      <c r="O10" s="129"/>
+      <c r="P10" s="174">
         <v>0.27255400254129603</v>
       </c>
-      <c r="O10" s="162"/>
-      <c r="P10" s="166">
+      <c r="Q10" s="175"/>
+      <c r="R10" s="180">
         <v>0.28081299999999998</v>
       </c>
-      <c r="Q10" s="167"/>
-      <c r="R10" s="161">
+      <c r="S10" s="181"/>
+      <c r="T10" s="174">
         <v>0.27255400254129603</v>
       </c>
-      <c r="S10" s="162"/>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="U10" s="175"/>
+    </row>
+    <row r="11" spans="1:21">
       <c r="C11" s="97"/>
       <c r="D11" s="97"/>
       <c r="E11" s="97"/>
@@ -12066,8 +12187,10 @@
       <c r="J11" s="97"/>
       <c r="K11" s="97"/>
       <c r="L11" s="97"/>
-    </row>
-    <row r="12" spans="1:19" ht="15" thickBot="1">
+      <c r="M11" s="97"/>
+      <c r="N11" s="97"/>
+    </row>
+    <row r="12" spans="1:21" ht="15" thickBot="1">
       <c r="C12" s="97"/>
       <c r="D12" s="97"/>
       <c r="E12" s="97"/>
@@ -12078,96 +12201,107 @@
       <c r="J12" s="97"/>
       <c r="K12" s="97"/>
       <c r="L12" s="105"/>
-    </row>
-    <row r="13" spans="1:19" ht="15" thickBot="1">
+      <c r="M12" s="97"/>
+      <c r="N12" s="105"/>
+    </row>
+    <row r="13" spans="1:21" ht="15" thickBot="1">
       <c r="A13" s="119" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="120"/>
-      <c r="C13" s="173">
+      <c r="C13" s="204">
         <v>0.10815</v>
       </c>
-      <c r="D13" s="174"/>
-      <c r="E13" s="173">
+      <c r="D13" s="205"/>
+      <c r="E13" s="204">
         <v>0.15767999999999999</v>
       </c>
-      <c r="F13" s="174"/>
-      <c r="G13" s="175">
+      <c r="F13" s="205"/>
+      <c r="G13" s="206">
         <v>0.10627</v>
       </c>
-      <c r="H13" s="176"/>
-      <c r="I13" s="173">
+      <c r="H13" s="207"/>
+      <c r="I13" s="204">
         <v>0.121944</v>
       </c>
-      <c r="J13" s="174"/>
-      <c r="K13" s="175">
+      <c r="J13" s="205"/>
+      <c r="K13" s="206">
         <v>0.107837</v>
       </c>
-      <c r="L13" s="176"/>
-      <c r="N13" s="163" t="s">
+      <c r="L13" s="207"/>
+      <c r="M13" s="206">
+        <v>0.107837</v>
+      </c>
+      <c r="N13" s="207"/>
+      <c r="P13" s="176" t="s">
         <v>88</v>
       </c>
-      <c r="O13" s="163"/>
-      <c r="P13" s="163"/>
-      <c r="Q13" s="163"/>
-      <c r="R13" s="163"/>
-      <c r="S13" s="163"/>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="Q13" s="176"/>
+      <c r="R13" s="176"/>
+      <c r="S13" s="176"/>
+      <c r="T13" s="176"/>
+      <c r="U13" s="176"/>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="92"/>
     </row>
-    <row r="20" spans="14:15" ht="15" thickBot="1"/>
-    <row r="21" spans="14:15">
-      <c r="N21" s="164"/>
-      <c r="O21" s="165"/>
-    </row>
-    <row r="22" spans="14:15" ht="15" thickBot="1">
-      <c r="N22" s="166"/>
-      <c r="O22" s="167"/>
+    <row r="20" spans="16:17" ht="15" thickBot="1"/>
+    <row r="21" spans="16:17">
+      <c r="P21" s="194"/>
+      <c r="Q21" s="195"/>
+    </row>
+    <row r="22" spans="16:17" ht="15" thickBot="1">
+      <c r="P22" s="198"/>
+      <c r="Q22" s="199"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
+  <mergeCells count="46">
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="P13:U13"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="R10:S10"/>
-    <mergeCell ref="N13:S13"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12185,26 +12319,26 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1">
-      <c r="C1" s="157" t="s">
+      <c r="C1" s="186" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="158"/>
-      <c r="E1" s="157" t="s">
+      <c r="D1" s="187"/>
+      <c r="E1" s="186" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="158"/>
-      <c r="G1" s="169" t="s">
+      <c r="F1" s="187"/>
+      <c r="G1" s="188" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="170"/>
-      <c r="I1" s="157" t="s">
+      <c r="H1" s="189"/>
+      <c r="I1" s="186" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="158"/>
-      <c r="N1" s="157" t="s">
+      <c r="J1" s="187"/>
+      <c r="N1" s="186" t="s">
         <v>86</v>
       </c>
-      <c r="O1" s="158"/>
+      <c r="O1" s="187"/>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1">
       <c r="G2" s="106"/>
@@ -12215,26 +12349,26 @@
     <row r="3" spans="1:15" ht="15" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="151" t="s">
+      <c r="C3" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="152"/>
-      <c r="E3" s="151" t="s">
+      <c r="D3" s="163"/>
+      <c r="E3" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="152"/>
-      <c r="G3" s="171" t="s">
+      <c r="F3" s="163"/>
+      <c r="G3" s="190" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="172"/>
-      <c r="I3" s="153" t="s">
+      <c r="H3" s="191"/>
+      <c r="I3" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="154"/>
-      <c r="N3" s="153" t="s">
+      <c r="J3" s="165"/>
+      <c r="N3" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="168"/>
+      <c r="O3" s="212"/>
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1">
       <c r="A4" s="76"/>
@@ -12271,7 +12405,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15" thickBot="1">
-      <c r="A5" s="155" t="b">
+      <c r="A5" s="166" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="78" t="s">
@@ -12309,7 +12443,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" thickBot="1">
-      <c r="A6" s="156"/>
+      <c r="A6" s="167"/>
       <c r="B6" s="81" t="s">
         <v>56</v>
       </c>
@@ -12373,52 +12507,52 @@
         <v>74</v>
       </c>
       <c r="B9" s="86"/>
-      <c r="C9" s="159">
+      <c r="C9" s="192">
         <v>0.88923300000000005</v>
       </c>
-      <c r="D9" s="160"/>
-      <c r="E9" s="159">
+      <c r="D9" s="193"/>
+      <c r="E9" s="192">
         <v>0.90965300000000004</v>
       </c>
-      <c r="F9" s="160"/>
-      <c r="G9" s="177">
+      <c r="F9" s="193"/>
+      <c r="G9" s="200">
         <v>0.85979000000000005</v>
       </c>
-      <c r="H9" s="178"/>
-      <c r="I9" s="164">
+      <c r="H9" s="201"/>
+      <c r="I9" s="194">
         <v>0.88737600000000005</v>
       </c>
-      <c r="J9" s="165"/>
-      <c r="N9" s="183">
+      <c r="J9" s="195"/>
+      <c r="N9" s="210">
         <v>0.86509899999999995</v>
       </c>
-      <c r="O9" s="184"/>
+      <c r="O9" s="211"/>
     </row>
     <row r="10" spans="1:15" ht="15" thickBot="1">
       <c r="A10" s="88" t="s">
         <v>75</v>
       </c>
       <c r="B10" s="89"/>
-      <c r="C10" s="161">
+      <c r="C10" s="196">
         <v>0.10419299999999999</v>
       </c>
-      <c r="D10" s="162"/>
-      <c r="E10" s="161">
+      <c r="D10" s="197"/>
+      <c r="E10" s="196">
         <v>0.22045699999999999</v>
       </c>
-      <c r="F10" s="162"/>
-      <c r="G10" s="179">
+      <c r="F10" s="197"/>
+      <c r="G10" s="202">
         <v>7.1291999999999994E-2</v>
       </c>
-      <c r="H10" s="180"/>
-      <c r="I10" s="166">
+      <c r="H10" s="203"/>
+      <c r="I10" s="198">
         <v>0.102922</v>
       </c>
-      <c r="J10" s="167"/>
-      <c r="N10" s="181">
+      <c r="J10" s="199"/>
+      <c r="N10" s="208">
         <v>0.115629</v>
       </c>
-      <c r="O10" s="182"/>
+      <c r="O10" s="209"/>
     </row>
     <row r="11" spans="1:15">
       <c r="C11" s="97"/>
@@ -25330,10 +25464,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="131" t="s">
+      <c r="G1" s="142" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="132"/>
+      <c r="H1" s="143"/>
       <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:16">
@@ -25781,10 +25915,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="131" t="s">
+      <c r="G1" s="142" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="132"/>
+      <c r="H1" s="143"/>
       <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:16">
@@ -26234,10 +26368,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="133" t="s">
+      <c r="G1" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="134"/>
+      <c r="H1" s="145"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="2"/>
@@ -26259,10 +26393,10 @@
       <c r="H2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="135" t="s">
+      <c r="I2" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="136"/>
+      <c r="J2" s="147"/>
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1">
       <c r="A3" s="3">
@@ -26288,11 +26422,11 @@
         <f>SUM(D3,D6,D9,D12,D15,D18,D21,D24,D27,D30)/10</f>
         <v>23.824451400000001</v>
       </c>
-      <c r="I3" s="137">
+      <c r="I3" s="148">
         <f>(H3-G3)/H3*100</f>
         <v>8.5526317722472331</v>
       </c>
-      <c r="J3" s="138"/>
+      <c r="J3" s="149"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1">
       <c r="A4" s="1" t="s">
@@ -26696,10 +26830,10 @@
       <c r="C1" s="46"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="139"/>
+      <c r="C2" s="150"/>
       <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:6">
@@ -26731,8 +26865,8 @@
       <c r="F8" s="46"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="150"/>
       <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:6">

--- a/weatherrankfilter_dbscan.xlsx
+++ b/weatherrankfilter_dbscan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shukl\Documents\GitHub\Daily_Weather\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CD30C9-EEF7-496A-9A21-CED78F93874B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5395A33E-DD39-4BAE-BC03-BC73776B7E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="14" xr2:uid="{9165270A-2809-4AF8-982C-0E3B25320FC9}"/>
   </bookViews>
@@ -1581,6 +1581,84 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1623,90 +1701,6 @@
     <xf numFmtId="2" fontId="0" fillId="18" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="17" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1715,6 +1709,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11769,7 +11769,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11779,42 +11779,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1">
-      <c r="C1" s="186" t="s">
+      <c r="C1" s="188" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="187"/>
-      <c r="E1" s="186" t="s">
+      <c r="D1" s="189"/>
+      <c r="E1" s="188" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="187"/>
-      <c r="G1" s="188" t="s">
+      <c r="F1" s="189"/>
+      <c r="G1" s="190" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="189"/>
-      <c r="I1" s="186" t="s">
+      <c r="H1" s="191"/>
+      <c r="I1" s="188" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="187"/>
-      <c r="K1" s="186" t="s">
+      <c r="J1" s="189"/>
+      <c r="K1" s="188" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="187"/>
-      <c r="M1" s="186" t="s">
+      <c r="L1" s="189"/>
+      <c r="M1" s="188" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="187"/>
-      <c r="P1" s="168" t="s">
+      <c r="N1" s="189"/>
+      <c r="P1" s="194" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="169"/>
-      <c r="R1" s="168" t="s">
+      <c r="Q1" s="195"/>
+      <c r="R1" s="194" t="s">
         <v>82</v>
       </c>
-      <c r="S1" s="169"/>
-      <c r="T1" s="168" t="s">
+      <c r="S1" s="195"/>
+      <c r="T1" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="U1" s="169"/>
+      <c r="U1" s="195"/>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1">
       <c r="G2" s="106"/>
@@ -11829,22 +11829,22 @@
     <row r="3" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="182" t="s">
+      <c r="C3" s="184" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="183"/>
-      <c r="E3" s="182" t="s">
+      <c r="D3" s="185"/>
+      <c r="E3" s="184" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="183"/>
-      <c r="G3" s="190" t="s">
+      <c r="F3" s="185"/>
+      <c r="G3" s="192" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="191"/>
-      <c r="I3" s="182" t="s">
+      <c r="H3" s="193"/>
+      <c r="I3" s="184" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="183"/>
+      <c r="J3" s="185"/>
       <c r="K3" s="164" t="s">
         <v>45</v>
       </c>
@@ -11853,18 +11853,18 @@
         <v>45</v>
       </c>
       <c r="N3" s="165"/>
-      <c r="P3" s="170" t="s">
+      <c r="P3" s="196" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="170" t="s">
+      <c r="Q3" s="197"/>
+      <c r="R3" s="196" t="s">
         <v>45</v>
       </c>
-      <c r="S3" s="177"/>
-      <c r="T3" s="170" t="s">
+      <c r="S3" s="203"/>
+      <c r="T3" s="196" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="171"/>
+      <c r="U3" s="197"/>
     </row>
     <row r="4" spans="1:21" ht="15" thickBot="1">
       <c r="A4" s="76"/>
@@ -11925,7 +11925,7 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="184" t="b">
+      <c r="A5" s="186" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="78" t="s">
@@ -11988,7 +11988,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="15" thickBot="1">
-      <c r="A6" s="185"/>
+      <c r="A6" s="187"/>
       <c r="B6" s="81" t="s">
         <v>56</v>
       </c>
@@ -12095,86 +12095,86 @@
         <v>74</v>
       </c>
       <c r="B9" s="86"/>
-      <c r="C9" s="192">
+      <c r="C9" s="176">
         <v>0.92636099999999999</v>
       </c>
-      <c r="D9" s="193"/>
-      <c r="E9" s="192">
+      <c r="D9" s="177"/>
+      <c r="E9" s="176">
         <v>0.92636099999999999</v>
       </c>
-      <c r="F9" s="193"/>
-      <c r="G9" s="200">
+      <c r="F9" s="177"/>
+      <c r="G9" s="180">
         <v>0.85979000000000005</v>
       </c>
-      <c r="H9" s="201"/>
-      <c r="I9" s="192">
+      <c r="H9" s="181"/>
+      <c r="I9" s="176">
         <v>0.89603999999999995</v>
       </c>
-      <c r="J9" s="193"/>
-      <c r="K9" s="194">
+      <c r="J9" s="177"/>
+      <c r="K9" s="168">
         <v>0.92821799999999999</v>
       </c>
-      <c r="L9" s="195"/>
-      <c r="M9" s="194">
+      <c r="L9" s="169"/>
+      <c r="M9" s="168">
         <v>0.91955399999999998</v>
       </c>
-      <c r="N9" s="195"/>
+      <c r="N9" s="169"/>
       <c r="O9" s="129"/>
-      <c r="P9" s="172">
+      <c r="P9" s="198">
         <v>0.98205445544554404</v>
       </c>
-      <c r="Q9" s="173"/>
-      <c r="R9" s="178">
+      <c r="Q9" s="199"/>
+      <c r="R9" s="204">
         <v>0.98391099999999998</v>
       </c>
-      <c r="S9" s="179"/>
-      <c r="T9" s="172">
+      <c r="S9" s="205"/>
+      <c r="T9" s="198">
         <v>0.98205445544554404</v>
       </c>
-      <c r="U9" s="173"/>
+      <c r="U9" s="199"/>
     </row>
     <row r="10" spans="1:21" ht="15" thickBot="1">
       <c r="A10" s="88" t="s">
         <v>75</v>
       </c>
       <c r="B10" s="89"/>
-      <c r="C10" s="196">
+      <c r="C10" s="178">
         <v>0.12706500000000001</v>
       </c>
-      <c r="D10" s="197"/>
-      <c r="E10" s="196">
+      <c r="D10" s="179"/>
+      <c r="E10" s="178">
         <v>0.253494</v>
       </c>
-      <c r="F10" s="197"/>
-      <c r="G10" s="202">
+      <c r="F10" s="179"/>
+      <c r="G10" s="182">
         <v>7.1291999999999994E-2</v>
       </c>
-      <c r="H10" s="203"/>
-      <c r="I10" s="196">
+      <c r="H10" s="183"/>
+      <c r="I10" s="178">
         <v>0.121347</v>
       </c>
-      <c r="J10" s="197"/>
-      <c r="K10" s="198">
+      <c r="J10" s="179"/>
+      <c r="K10" s="170">
         <v>0.12515899999999999</v>
       </c>
-      <c r="L10" s="199"/>
-      <c r="M10" s="198">
+      <c r="L10" s="171"/>
+      <c r="M10" s="170">
         <v>0.12642900000000001</v>
       </c>
-      <c r="N10" s="199"/>
+      <c r="N10" s="171"/>
       <c r="O10" s="129"/>
-      <c r="P10" s="174">
+      <c r="P10" s="200">
         <v>0.27255400254129603</v>
       </c>
-      <c r="Q10" s="175"/>
-      <c r="R10" s="180">
+      <c r="Q10" s="201"/>
+      <c r="R10" s="206">
         <v>0.28081299999999998</v>
       </c>
-      <c r="S10" s="181"/>
-      <c r="T10" s="174">
+      <c r="S10" s="207"/>
+      <c r="T10" s="200">
         <v>0.27255400254129603</v>
       </c>
-      <c r="U10" s="175"/>
+      <c r="U10" s="201"/>
     </row>
     <row r="11" spans="1:21">
       <c r="C11" s="97"/>
@@ -12209,73 +12209,66 @@
         <v>76</v>
       </c>
       <c r="B13" s="120"/>
-      <c r="C13" s="204">
+      <c r="C13" s="172">
         <v>0.10815</v>
       </c>
-      <c r="D13" s="205"/>
-      <c r="E13" s="204">
+      <c r="D13" s="173"/>
+      <c r="E13" s="172">
         <v>0.15767999999999999</v>
       </c>
-      <c r="F13" s="205"/>
-      <c r="G13" s="206">
+      <c r="F13" s="173"/>
+      <c r="G13" s="174">
         <v>0.10627</v>
       </c>
-      <c r="H13" s="207"/>
-      <c r="I13" s="204">
+      <c r="H13" s="175"/>
+      <c r="I13" s="172">
         <v>0.121944</v>
       </c>
-      <c r="J13" s="205"/>
-      <c r="K13" s="206">
+      <c r="J13" s="173"/>
+      <c r="K13" s="174">
         <v>0.107837</v>
       </c>
-      <c r="L13" s="207"/>
-      <c r="M13" s="206">
+      <c r="L13" s="175"/>
+      <c r="M13" s="174">
         <v>0.107837</v>
       </c>
-      <c r="N13" s="207"/>
-      <c r="P13" s="176" t="s">
+      <c r="N13" s="175"/>
+      <c r="P13" s="202" t="s">
         <v>88</v>
       </c>
-      <c r="Q13" s="176"/>
-      <c r="R13" s="176"/>
-      <c r="S13" s="176"/>
-      <c r="T13" s="176"/>
-      <c r="U13" s="176"/>
+      <c r="Q13" s="202"/>
+      <c r="R13" s="202"/>
+      <c r="S13" s="202"/>
+      <c r="T13" s="202"/>
+      <c r="U13" s="202"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="92"/>
     </row>
     <row r="20" spans="16:17" ht="15" thickBot="1"/>
     <row r="21" spans="16:17">
-      <c r="P21" s="194"/>
-      <c r="Q21" s="195"/>
+      <c r="P21" s="168"/>
+      <c r="Q21" s="169"/>
     </row>
     <row r="22" spans="16:17" ht="15" thickBot="1">
-      <c r="P22" s="198"/>
-      <c r="Q22" s="199"/>
+      <c r="P22" s="170"/>
+      <c r="Q22" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="P13:U13"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="A5:A6"/>
@@ -12289,19 +12282,26 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="P13:U13"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12319,26 +12319,26 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1">
-      <c r="C1" s="186" t="s">
+      <c r="C1" s="188" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="187"/>
-      <c r="E1" s="186" t="s">
+      <c r="D1" s="189"/>
+      <c r="E1" s="188" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="187"/>
-      <c r="G1" s="188" t="s">
+      <c r="F1" s="189"/>
+      <c r="G1" s="190" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="189"/>
-      <c r="I1" s="186" t="s">
+      <c r="H1" s="191"/>
+      <c r="I1" s="188" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="187"/>
-      <c r="N1" s="186" t="s">
+      <c r="J1" s="189"/>
+      <c r="N1" s="188" t="s">
         <v>86</v>
       </c>
-      <c r="O1" s="187"/>
+      <c r="O1" s="189"/>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1">
       <c r="G2" s="106"/>
@@ -12357,10 +12357,10 @@
         <v>45</v>
       </c>
       <c r="F3" s="163"/>
-      <c r="G3" s="190" t="s">
+      <c r="G3" s="192" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="191"/>
+      <c r="H3" s="193"/>
       <c r="I3" s="164" t="s">
         <v>45</v>
       </c>
@@ -12368,7 +12368,7 @@
       <c r="N3" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="212"/>
+      <c r="O3" s="210"/>
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1">
       <c r="A4" s="76"/>
@@ -12507,52 +12507,52 @@
         <v>74</v>
       </c>
       <c r="B9" s="86"/>
-      <c r="C9" s="192">
+      <c r="C9" s="176">
         <v>0.88923300000000005</v>
       </c>
-      <c r="D9" s="193"/>
-      <c r="E9" s="192">
+      <c r="D9" s="177"/>
+      <c r="E9" s="176">
         <v>0.90965300000000004</v>
       </c>
-      <c r="F9" s="193"/>
-      <c r="G9" s="200">
+      <c r="F9" s="177"/>
+      <c r="G9" s="180">
         <v>0.85979000000000005</v>
       </c>
-      <c r="H9" s="201"/>
-      <c r="I9" s="194">
+      <c r="H9" s="181"/>
+      <c r="I9" s="168">
         <v>0.88737600000000005</v>
       </c>
-      <c r="J9" s="195"/>
-      <c r="N9" s="210">
+      <c r="J9" s="169"/>
+      <c r="N9" s="208">
         <v>0.86509899999999995</v>
       </c>
-      <c r="O9" s="211"/>
+      <c r="O9" s="209"/>
     </row>
     <row r="10" spans="1:15" ht="15" thickBot="1">
       <c r="A10" s="88" t="s">
         <v>75</v>
       </c>
       <c r="B10" s="89"/>
-      <c r="C10" s="196">
+      <c r="C10" s="178">
         <v>0.10419299999999999</v>
       </c>
-      <c r="D10" s="197"/>
-      <c r="E10" s="196">
+      <c r="D10" s="179"/>
+      <c r="E10" s="178">
         <v>0.22045699999999999</v>
       </c>
-      <c r="F10" s="197"/>
-      <c r="G10" s="202">
+      <c r="F10" s="179"/>
+      <c r="G10" s="182">
         <v>7.1291999999999994E-2</v>
       </c>
-      <c r="H10" s="203"/>
-      <c r="I10" s="198">
+      <c r="H10" s="183"/>
+      <c r="I10" s="170">
         <v>0.102922</v>
       </c>
-      <c r="J10" s="199"/>
-      <c r="N10" s="208">
+      <c r="J10" s="171"/>
+      <c r="N10" s="211">
         <v>0.115629</v>
       </c>
-      <c r="O10" s="209"/>
+      <c r="O10" s="212"/>
     </row>
     <row r="11" spans="1:15">
       <c r="C11" s="97"/>
@@ -12580,6 +12580,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
@@ -12591,16 +12601,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="N3:O3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="N10:O10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/weatherrankfilter_dbscan.xlsx
+++ b/weatherrankfilter_dbscan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shukl\Documents\GitHub\Daily_Weather\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5395A33E-DD39-4BAE-BC03-BC73776B7E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BED8D2-4514-4ECA-B2E2-F134E4A5EA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="14" xr2:uid="{9165270A-2809-4AF8-982C-0E3B25320FC9}"/>
   </bookViews>
@@ -27,13 +27,14 @@
     <sheet name="dbscan_acc" sheetId="14" r:id="rId12"/>
     <sheet name="dbscan" sheetId="15" r:id="rId13"/>
     <sheet name="dbscan_clust_l1pca" sheetId="16" r:id="rId14"/>
-    <sheet name="knee_l1pca" sheetId="17" r:id="rId15"/>
-    <sheet name="Sheet3" sheetId="18" r:id="rId16"/>
+    <sheet name="knee_l1pca_0%" sheetId="17" r:id="rId15"/>
+    <sheet name="knee_l1_10%" sheetId="18" r:id="rId16"/>
     <sheet name="Sheet4" sheetId="19" r:id="rId17"/>
     <sheet name="weatherDT%cor" sheetId="5" state="hidden" r:id="rId18"/>
     <sheet name="weatherSVM%cor" sheetId="6" state="hidden" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="94">
   <si>
     <t>---------split 1 --------------------</t>
   </si>
@@ -622,22 +623,7 @@
     <t>Raw</t>
   </si>
   <si>
-    <t>20% excision</t>
-  </si>
-  <si>
     <t>knee angle</t>
-  </si>
-  <si>
-    <t>knee error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">knee opt </t>
-  </si>
-  <si>
-    <t>knee opt</t>
-  </si>
-  <si>
-    <t>diff</t>
   </si>
   <si>
     <t>l1 knee error</t>
@@ -646,10 +632,28 @@
     <t>l1 20% excision</t>
   </si>
   <si>
-    <t xml:space="preserve"> knee angle opt rank</t>
+    <t>knee opt rank error</t>
   </si>
   <si>
-    <t>knee opt rank error</t>
+    <t xml:space="preserve"> knee angle 5 opt rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> knee angle 3 opt rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> knee angle 4 opt rank</t>
+  </si>
+  <si>
+    <t>L1 -rank 1 knee (line fit error)</t>
+  </si>
+  <si>
+    <t>L1 rank 1 20% excision</t>
+  </si>
+  <si>
+    <t>knee error + opt rank (1 to 3) using angle</t>
+  </si>
+  <si>
+    <t>knee error  + opt rank(1 to 5) using angle</t>
   </si>
 </sst>
 </file>
@@ -735,7 +739,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -838,14 +842,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.89999084444715716"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="28">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1168,41 +1166,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1405,9 +1373,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1430,20 +1395,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="10" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1483,26 +1434,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="18" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="18" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1581,18 +1512,6 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1611,10 +1530,22 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1659,62 +1590,11 @@
     <xf numFmtId="0" fontId="4" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="18" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="18" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="18" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="18" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10482,26 +10362,26 @@
     <row r="2" spans="2:12" ht="15" thickBot="1">
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
-      <c r="D2" s="155" t="s">
+      <c r="D2" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="156"/>
+      <c r="E2" s="139"/>
       <c r="F2" s="50"/>
-      <c r="J2" s="155" t="s">
+      <c r="J2" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="156"/>
+      <c r="K2" s="139"/>
     </row>
     <row r="3" spans="2:12" ht="14.55" customHeight="1">
-      <c r="D3" s="157" t="s">
+      <c r="D3" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="158"/>
+      <c r="E3" s="141"/>
       <c r="F3" s="51"/>
-      <c r="J3" s="157" t="s">
+      <c r="J3" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="158"/>
+      <c r="K3" s="141"/>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1">
       <c r="D4" s="52" t="s">
@@ -10519,7 +10399,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.55" customHeight="1">
-      <c r="B5" s="151" t="b">
+      <c r="B5" s="134" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="55" t="s">
@@ -10533,10 +10413,10 @@
         <f>D14</f>
         <v>34.4</v>
       </c>
-      <c r="F5" s="153" t="s">
+      <c r="F5" s="136" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="151" t="b">
+      <c r="H5" s="134" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="55" t="s">
@@ -10550,12 +10430,12 @@
         <f>D20</f>
         <v>34.9</v>
       </c>
-      <c r="L5" s="153" t="s">
+      <c r="L5" s="136" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="B6" s="152"/>
+      <c r="B6" s="135"/>
       <c r="C6" s="58" t="s">
         <v>56</v>
       </c>
@@ -10567,8 +10447,8 @@
         <f>D15</f>
         <v>124.9</v>
       </c>
-      <c r="F6" s="154"/>
-      <c r="H6" s="152"/>
+      <c r="F6" s="137"/>
+      <c r="H6" s="135"/>
       <c r="I6" s="58" t="s">
         <v>56</v>
       </c>
@@ -10580,7 +10460,7 @@
         <f>D21</f>
         <v>120.8</v>
       </c>
-      <c r="L6" s="154"/>
+      <c r="L6" s="137"/>
     </row>
     <row r="7" spans="2:12" ht="28.8">
       <c r="D7" s="73" t="s">
@@ -10872,10 +10752,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="144" t="s">
+      <c r="G1" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="145"/>
+      <c r="H1" s="128"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2"/>
@@ -10897,10 +10777,10 @@
       <c r="H2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="146" t="s">
+      <c r="I2" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="147"/>
+      <c r="J2" s="130"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="3">
@@ -10926,11 +10806,11 @@
         <f>SUM(D3,D6,D9,D12,D15,D18,D21,D24,D27,D30)/10</f>
         <v>23.824451400000001</v>
       </c>
-      <c r="I3" s="148">
+      <c r="I3" s="131">
         <f>(H3-G3)/H3*100</f>
         <v>3.6842103319113475</v>
       </c>
-      <c r="J3" s="149"/>
+      <c r="J3" s="132"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
@@ -11246,26 +11126,26 @@
     <row r="2" spans="2:12" ht="15" thickBot="1">
       <c r="B2" s="49"/>
       <c r="C2" s="49"/>
-      <c r="D2" s="155" t="s">
+      <c r="D2" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="156"/>
+      <c r="E2" s="139"/>
       <c r="F2" s="50"/>
-      <c r="J2" s="155" t="s">
+      <c r="J2" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="156"/>
+      <c r="K2" s="139"/>
     </row>
     <row r="3" spans="2:12" ht="14.55" customHeight="1">
-      <c r="D3" s="157" t="s">
+      <c r="D3" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="158"/>
+      <c r="E3" s="141"/>
       <c r="F3" s="51"/>
-      <c r="J3" s="157" t="s">
+      <c r="J3" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="158"/>
+      <c r="K3" s="141"/>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1">
       <c r="D4" s="52" t="s">
@@ -11283,7 +11163,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.55" customHeight="1">
-      <c r="B5" s="151" t="b">
+      <c r="B5" s="134" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="55" t="s">
@@ -11297,10 +11177,10 @@
         <f>D14</f>
         <v>34.1</v>
       </c>
-      <c r="F5" s="153" t="s">
+      <c r="F5" s="136" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="151" t="b">
+      <c r="H5" s="134" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="55" t="s">
@@ -11314,12 +11194,12 @@
         <f>D20</f>
         <v>34.9</v>
       </c>
-      <c r="L5" s="153" t="s">
+      <c r="L5" s="136" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1">
-      <c r="B6" s="152"/>
+      <c r="B6" s="135"/>
       <c r="C6" s="58" t="s">
         <v>56</v>
       </c>
@@ -11331,8 +11211,8 @@
         <f>D15</f>
         <v>121.6</v>
       </c>
-      <c r="F6" s="154"/>
-      <c r="H6" s="152"/>
+      <c r="F6" s="137"/>
+      <c r="H6" s="135"/>
       <c r="I6" s="58" t="s">
         <v>56</v>
       </c>
@@ -11344,7 +11224,7 @@
         <f>D21</f>
         <v>120.8</v>
       </c>
-      <c r="L6" s="154"/>
+      <c r="L6" s="137"/>
     </row>
     <row r="7" spans="2:12" ht="28.8">
       <c r="D7" s="73" t="s">
@@ -11638,30 +11518,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1">
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="142" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="161"/>
-      <c r="G1" s="159" t="s">
+      <c r="C1" s="143"/>
+      <c r="D1" s="144"/>
+      <c r="G1" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="160"/>
-      <c r="I1" s="161"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="144"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1"/>
     <row r="3" spans="1:14" ht="15" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="162" t="s">
+      <c r="C3" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="163"/>
+      <c r="D3" s="146"/>
       <c r="E3" s="77"/>
-      <c r="H3" s="164" t="s">
+      <c r="H3" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="165"/>
+      <c r="I3" s="148"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1">
       <c r="A4" s="76"/>
@@ -11681,7 +11561,7 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="166" t="b">
+      <c r="A5" s="149" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="78" t="s">
@@ -11694,7 +11574,7 @@
       <c r="I5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1">
-      <c r="A6" s="167"/>
+      <c r="A6" s="150"/>
       <c r="B6" s="81" t="s">
         <v>56</v>
       </c>
@@ -11712,12 +11592,12 @@
         <v>74</v>
       </c>
       <c r="B9" s="86"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="100"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="99"/>
       <c r="E9" s="97"/>
       <c r="F9" s="97"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="102"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="101"/>
       <c r="I9" s="87"/>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1">
@@ -11725,10 +11605,10 @@
         <v>75</v>
       </c>
       <c r="B10" s="89"/>
-      <c r="C10" s="103"/>
+      <c r="C10" s="102"/>
       <c r="D10" s="90"/>
       <c r="G10" s="89"/>
-      <c r="H10" s="104"/>
+      <c r="H10" s="103"/>
       <c r="I10" s="91"/>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1">
@@ -11766,107 +11646,80 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BF5402-0B55-4FF7-968A-750CFC968FFA}">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection sqref="A1:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1">
-      <c r="C1" s="188" t="s">
+    <row r="1" spans="1:16" ht="15" thickBot="1">
+      <c r="C1" s="177" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="178"/>
+      <c r="E1" s="177" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="178"/>
+      <c r="G1" s="177" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="178"/>
+      <c r="I1" s="177" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="178"/>
+      <c r="K1" s="177" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="178"/>
+      <c r="O1" s="171" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="189"/>
-      <c r="E1" s="188" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" s="189"/>
-      <c r="G1" s="190" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="191"/>
-      <c r="I1" s="188" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" s="189"/>
-      <c r="K1" s="188" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" s="189"/>
-      <c r="M1" s="188" t="s">
-        <v>82</v>
-      </c>
-      <c r="N1" s="189"/>
-      <c r="P1" s="194" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q1" s="195"/>
-      <c r="R1" s="194" t="s">
-        <v>82</v>
-      </c>
-      <c r="S1" s="195"/>
-      <c r="T1" s="194" t="s">
-        <v>87</v>
-      </c>
-      <c r="U1" s="195"/>
-    </row>
-    <row r="2" spans="1:21" ht="15" thickBot="1">
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="P1" s="172"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" thickBot="1"/>
+    <row r="3" spans="1:16" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="184" t="s">
+      <c r="C3" s="167" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="185"/>
-      <c r="E3" s="184" t="s">
+      <c r="D3" s="168"/>
+      <c r="E3" s="167" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="185"/>
-      <c r="G3" s="192" t="s">
+      <c r="F3" s="168"/>
+      <c r="G3" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="193"/>
-      <c r="I3" s="184" t="s">
+      <c r="H3" s="148"/>
+      <c r="I3" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="185"/>
-      <c r="K3" s="164" t="s">
+      <c r="J3" s="148"/>
+      <c r="K3" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="165"/>
-      <c r="M3" s="164" t="s">
+      <c r="L3" s="148"/>
+      <c r="O3" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="165"/>
-      <c r="P3" s="196" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="196" t="s">
-        <v>45</v>
-      </c>
-      <c r="S3" s="203"/>
-      <c r="T3" s="196" t="s">
-        <v>45</v>
-      </c>
-      <c r="U3" s="197"/>
-    </row>
-    <row r="4" spans="1:21" ht="15" thickBot="1">
+      <c r="P3" s="148"/>
+    </row>
+    <row r="4" spans="1:16" ht="15" thickBot="1">
       <c r="A4" s="76"/>
       <c r="B4" s="76"/>
       <c r="C4" s="52" t="s">
@@ -11881,10 +11734,10 @@
       <c r="F4" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="107" t="s">
+      <c r="G4" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="108" t="s">
+      <c r="H4" s="53" t="s">
         <v>56</v>
       </c>
       <c r="I4" s="52" t="s">
@@ -11899,409 +11752,269 @@
       <c r="L4" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="M4" s="52" t="s">
+      <c r="O4" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="53" t="s">
+      <c r="P4" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="P4" s="135" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q4" s="136" t="s">
-        <v>56</v>
-      </c>
-      <c r="R4" s="135" t="s">
-        <v>55</v>
-      </c>
-      <c r="S4" s="136" t="s">
-        <v>56</v>
-      </c>
-      <c r="T4" s="135" t="s">
-        <v>55</v>
-      </c>
-      <c r="U4" s="136" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="186" t="b">
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="169" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="131">
+      <c r="C5" s="122">
         <v>0.87293500000000002</v>
       </c>
-      <c r="D5" s="132">
+      <c r="D5" s="123">
         <v>0.12706500000000001</v>
       </c>
-      <c r="E5" s="131">
+      <c r="E5" s="122">
         <v>0.746506</v>
       </c>
-      <c r="F5" s="132">
+      <c r="F5" s="123">
         <v>0.253494</v>
       </c>
-      <c r="G5" s="123">
-        <v>0.92870799999999998</v>
-      </c>
-      <c r="H5" s="124">
-        <v>7.1291999999999994E-2</v>
-      </c>
-      <c r="I5" s="131">
-        <v>0.87865300000000002</v>
-      </c>
-      <c r="J5" s="132">
-        <v>0.121347</v>
-      </c>
-      <c r="K5" s="121">
+      <c r="G5" s="112">
         <v>0.87484099999999998</v>
       </c>
-      <c r="L5" s="122">
+      <c r="H5" s="113">
         <v>0.12515899999999999</v>
       </c>
-      <c r="M5" s="121">
+      <c r="I5" s="112">
+        <v>0.87484099999999998</v>
+      </c>
+      <c r="J5" s="113">
+        <v>0.12515899999999999</v>
+      </c>
+      <c r="K5" s="112">
         <v>0.87357099999999999</v>
       </c>
-      <c r="N5" s="122">
+      <c r="L5" s="113">
         <v>0.12642900000000001</v>
       </c>
-      <c r="O5" s="129"/>
-      <c r="P5" s="137">
-        <v>0.72744599745870397</v>
-      </c>
-      <c r="Q5" s="138">
-        <v>0.27255400254129603</v>
-      </c>
-      <c r="R5" s="137">
-        <v>0.71918700000000002</v>
-      </c>
-      <c r="S5" s="138">
-        <v>0.28081299999999998</v>
-      </c>
-      <c r="T5" s="137">
-        <v>0.72744599745870397</v>
-      </c>
-      <c r="U5" s="138">
-        <v>0.27255400254129603</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="15" thickBot="1">
-      <c r="A6" s="187"/>
+      <c r="M5" s="120"/>
+      <c r="O5" s="112">
+        <v>0.87484099999999998</v>
+      </c>
+      <c r="P5" s="113">
+        <v>0.12515899999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" thickBot="1">
+      <c r="A6" s="170"/>
       <c r="B6" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="133">
+      <c r="C6" s="124">
         <v>7.3638999999999996E-2</v>
       </c>
-      <c r="D6" s="126">
+      <c r="D6" s="117">
         <v>0.92636099999999999</v>
       </c>
-      <c r="E6" s="133">
+      <c r="E6" s="124">
         <v>7.3638999999999996E-2</v>
       </c>
-      <c r="F6" s="126">
+      <c r="F6" s="117">
         <v>0.92636099999999999</v>
       </c>
-      <c r="G6" s="127">
-        <v>0.14021</v>
-      </c>
-      <c r="H6" s="128">
-        <v>0.85979000000000005</v>
-      </c>
-      <c r="I6" s="133">
-        <v>0.10396</v>
-      </c>
-      <c r="J6" s="126">
-        <v>0.89603999999999995</v>
-      </c>
-      <c r="K6" s="125">
+      <c r="G6" s="116">
         <v>7.1781999999999999E-2</v>
       </c>
-      <c r="L6" s="126">
+      <c r="H6" s="117">
         <v>0.92821799999999999</v>
       </c>
-      <c r="M6" s="125">
+      <c r="I6" s="116">
+        <v>7.1781999999999999E-2</v>
+      </c>
+      <c r="J6" s="117">
+        <v>0.92821799999999999</v>
+      </c>
+      <c r="K6" s="116">
         <v>8.0446000000000004E-2</v>
       </c>
-      <c r="N6" s="126">
+      <c r="L6" s="117">
         <v>0.91955399999999998</v>
       </c>
-      <c r="O6" s="129"/>
-      <c r="P6" s="139">
-        <v>1.7945544554455399E-2</v>
-      </c>
-      <c r="Q6" s="140">
-        <v>0.98205445544554404</v>
-      </c>
-      <c r="R6" s="139">
-        <v>1.6088999999999999E-2</v>
-      </c>
-      <c r="S6" s="140">
-        <v>0.98391099999999998</v>
-      </c>
-      <c r="T6" s="139">
-        <v>1.7945544554455399E-2</v>
-      </c>
-      <c r="U6" s="140">
-        <v>0.98205445544554404</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="129"/>
-      <c r="P7" s="141"/>
-      <c r="Q7" s="141"/>
-      <c r="R7" s="141"/>
-      <c r="S7" s="141"/>
-      <c r="T7" s="141"/>
-      <c r="U7" s="141"/>
-    </row>
-    <row r="8" spans="1:21" ht="15" thickBot="1">
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="129"/>
-      <c r="L8" s="129"/>
-      <c r="M8" s="129"/>
-      <c r="N8" s="129"/>
-      <c r="O8" s="129"/>
-      <c r="P8" s="141"/>
-      <c r="Q8" s="141"/>
-      <c r="R8" s="141"/>
-      <c r="S8" s="141"/>
-      <c r="T8" s="141"/>
-      <c r="U8" s="141"/>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="M6" s="120"/>
+      <c r="O6" s="116">
+        <v>7.1781999999999999E-2</v>
+      </c>
+      <c r="P6" s="117">
+        <v>0.92821799999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="120"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" thickBot="1">
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="120"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="85" t="s">
         <v>74</v>
       </c>
       <c r="B9" s="86"/>
-      <c r="C9" s="176">
+      <c r="C9" s="155">
         <v>0.92636099999999999</v>
       </c>
-      <c r="D9" s="177"/>
-      <c r="E9" s="176">
+      <c r="D9" s="156"/>
+      <c r="E9" s="155">
         <v>0.92636099999999999</v>
       </c>
-      <c r="F9" s="177"/>
-      <c r="G9" s="180">
-        <v>0.85979000000000005</v>
-      </c>
-      <c r="H9" s="181"/>
-      <c r="I9" s="176">
-        <v>0.89603999999999995</v>
-      </c>
-      <c r="J9" s="177"/>
-      <c r="K9" s="168">
+      <c r="F9" s="156"/>
+      <c r="G9" s="157">
         <v>0.92821799999999999</v>
       </c>
-      <c r="L9" s="169"/>
-      <c r="M9" s="168">
+      <c r="H9" s="158"/>
+      <c r="I9" s="157">
+        <v>0.92821799999999999</v>
+      </c>
+      <c r="J9" s="158"/>
+      <c r="K9" s="157">
         <v>0.91955399999999998</v>
       </c>
-      <c r="N9" s="169"/>
-      <c r="O9" s="129"/>
-      <c r="P9" s="198">
-        <v>0.98205445544554404</v>
-      </c>
-      <c r="Q9" s="199"/>
-      <c r="R9" s="204">
-        <v>0.98391099999999998</v>
-      </c>
-      <c r="S9" s="205"/>
-      <c r="T9" s="198">
-        <v>0.98205445544554404</v>
-      </c>
-      <c r="U9" s="199"/>
-    </row>
-    <row r="10" spans="1:21" ht="15" thickBot="1">
+      <c r="L9" s="158"/>
+      <c r="M9" s="120"/>
+      <c r="O9" s="157">
+        <v>0.92821799999999999</v>
+      </c>
+      <c r="P9" s="158"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" thickBot="1">
       <c r="A10" s="88" t="s">
         <v>75</v>
       </c>
       <c r="B10" s="89"/>
-      <c r="C10" s="178">
+      <c r="C10" s="159">
         <v>0.12706500000000001</v>
       </c>
-      <c r="D10" s="179"/>
-      <c r="E10" s="178">
+      <c r="D10" s="160"/>
+      <c r="E10" s="159">
         <v>0.253494</v>
       </c>
-      <c r="F10" s="179"/>
-      <c r="G10" s="182">
-        <v>7.1291999999999994E-2</v>
-      </c>
-      <c r="H10" s="183"/>
-      <c r="I10" s="178">
-        <v>0.121347</v>
-      </c>
-      <c r="J10" s="179"/>
-      <c r="K10" s="170">
+      <c r="F10" s="160"/>
+      <c r="G10" s="161">
         <v>0.12515899999999999</v>
       </c>
-      <c r="L10" s="171"/>
-      <c r="M10" s="170">
+      <c r="H10" s="162"/>
+      <c r="I10" s="161">
+        <v>0.12515899999999999</v>
+      </c>
+      <c r="J10" s="162"/>
+      <c r="K10" s="161">
         <v>0.12642900000000001</v>
       </c>
-      <c r="N10" s="171"/>
-      <c r="O10" s="129"/>
-      <c r="P10" s="200">
-        <v>0.27255400254129603</v>
-      </c>
-      <c r="Q10" s="201"/>
-      <c r="R10" s="206">
-        <v>0.28081299999999998</v>
-      </c>
-      <c r="S10" s="207"/>
-      <c r="T10" s="200">
-        <v>0.27255400254129603</v>
-      </c>
-      <c r="U10" s="201"/>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="L10" s="162"/>
+      <c r="M10" s="120"/>
+      <c r="O10" s="161">
+        <v>0.12515899999999999</v>
+      </c>
+      <c r="P10" s="162"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="C11" s="97"/>
       <c r="D11" s="97"/>
       <c r="E11" s="97"/>
       <c r="F11" s="97"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="97"/>
       <c r="K11" s="97"/>
       <c r="L11" s="97"/>
-      <c r="M11" s="97"/>
-      <c r="N11" s="97"/>
-    </row>
-    <row r="12" spans="1:21" ht="15" thickBot="1">
+      <c r="O11" s="97"/>
+      <c r="P11" s="97"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" thickBot="1">
       <c r="C12" s="97"/>
       <c r="D12" s="97"/>
       <c r="E12" s="97"/>
       <c r="F12" s="97"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
       <c r="K12" s="97"/>
-      <c r="L12" s="105"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="105"/>
-    </row>
-    <row r="13" spans="1:21" ht="15" thickBot="1">
-      <c r="A13" s="119" t="s">
+      <c r="L12" s="104"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="104"/>
+    </row>
+    <row r="13" spans="1:16" ht="15" thickBot="1">
+      <c r="A13" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="172">
+      <c r="B13" s="111"/>
+      <c r="C13" s="151">
         <v>0.10815</v>
       </c>
-      <c r="D13" s="173"/>
-      <c r="E13" s="172">
+      <c r="D13" s="152"/>
+      <c r="E13" s="151">
         <v>0.15767999999999999</v>
       </c>
-      <c r="F13" s="173"/>
-      <c r="G13" s="174">
-        <v>0.10627</v>
-      </c>
-      <c r="H13" s="175"/>
-      <c r="I13" s="172">
-        <v>0.121944</v>
-      </c>
-      <c r="J13" s="173"/>
-      <c r="K13" s="174">
+      <c r="F13" s="152"/>
+      <c r="K13" s="153">
         <v>0.107837</v>
       </c>
-      <c r="L13" s="175"/>
-      <c r="M13" s="174">
+      <c r="L13" s="154"/>
+      <c r="O13" s="153">
         <v>0.107837</v>
       </c>
-      <c r="N13" s="175"/>
-      <c r="P13" s="202" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q13" s="202"/>
-      <c r="R13" s="202"/>
-      <c r="S13" s="202"/>
-      <c r="T13" s="202"/>
-      <c r="U13" s="202"/>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="P13" s="154"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="92"/>
     </row>
-    <row r="20" spans="16:17" ht="15" thickBot="1"/>
-    <row r="21" spans="16:17">
-      <c r="P21" s="168"/>
-      <c r="Q21" s="169"/>
-    </row>
-    <row r="22" spans="16:17" ht="15" thickBot="1">
-      <c r="P22" s="170"/>
-      <c r="Q22" s="171"/>
-    </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="P13:U13"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
+  <mergeCells count="29">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="K3:L3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I3:J3"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O3:P3"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
-    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="K9:L9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K9:L9"/>
     <mergeCell ref="K10:L10"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:L13"/>
+    <mergeCell ref="O13:P13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12310,67 +12023,94 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7051C07E-0624-451E-8384-94FF678A78E0}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="10.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1">
-      <c r="C1" s="188" t="s">
+    <row r="1" spans="1:19" ht="15" thickBot="1">
+      <c r="C1" s="171" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="172"/>
+      <c r="E1" s="171" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="189"/>
-      <c r="E1" s="188" t="s">
+      <c r="F1" s="172"/>
+      <c r="G1" s="173" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="189"/>
-      <c r="G1" s="190" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="191"/>
-      <c r="I1" s="188" t="s">
+      <c r="H1" s="174"/>
+      <c r="I1" s="171" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="172"/>
+      <c r="K1" s="171" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="172"/>
+      <c r="M1" s="171" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="189"/>
-      <c r="N1" s="188" t="s">
-        <v>86</v>
-      </c>
-      <c r="O1" s="189"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1">
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="112"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1">
+      <c r="N1" s="172"/>
+      <c r="P1" s="171" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="171" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="172"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" thickBot="1">
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="162" t="s">
+      <c r="C3" s="167" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="163"/>
-      <c r="E3" s="162" t="s">
+      <c r="D3" s="168"/>
+      <c r="E3" s="167" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="163"/>
-      <c r="G3" s="192" t="s">
+      <c r="F3" s="168"/>
+      <c r="G3" s="175" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="193"/>
-      <c r="I3" s="164" t="s">
+      <c r="H3" s="176"/>
+      <c r="I3" s="167" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="165"/>
-      <c r="N3" s="164" t="s">
+      <c r="J3" s="168"/>
+      <c r="K3" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="210"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1">
+      <c r="L3" s="148"/>
+      <c r="M3" s="147" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="148"/>
+      <c r="P3" s="147" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="148"/>
+      <c r="R3" s="147" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="148"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" thickBot="1">
       <c r="A4" s="76"/>
       <c r="B4" s="76"/>
       <c r="C4" s="52" t="s">
@@ -12385,10 +12125,10 @@
       <c r="F4" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="107" t="s">
+      <c r="G4" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="108" t="s">
+      <c r="H4" s="107" t="s">
         <v>56</v>
       </c>
       <c r="I4" s="52" t="s">
@@ -12397,210 +12137,361 @@
       <c r="J4" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="N4" s="113" t="s">
+      <c r="K4" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="O4" s="114" t="s">
+      <c r="L4" s="53" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1">
-      <c r="A5" s="166" t="b">
+      <c r="M4" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="S4" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="169" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="121">
-        <v>0.89580700000000002</v>
-      </c>
-      <c r="D5" s="122">
-        <v>0.10419299999999999</v>
-      </c>
-      <c r="E5" s="121">
-        <v>0.77954299999999999</v>
-      </c>
-      <c r="F5" s="122">
-        <v>0.22045699999999999</v>
-      </c>
-      <c r="G5" s="123">
+      <c r="C5" s="122">
+        <v>0.87293500000000002</v>
+      </c>
+      <c r="D5" s="123">
+        <v>0.12706500000000001</v>
+      </c>
+      <c r="E5" s="122">
+        <v>0.746506</v>
+      </c>
+      <c r="F5" s="123">
+        <v>0.253494</v>
+      </c>
+      <c r="G5" s="114">
         <v>0.92870799999999998</v>
       </c>
-      <c r="H5" s="124">
+      <c r="H5" s="115">
         <v>7.1291999999999994E-2</v>
       </c>
-      <c r="I5" s="121">
-        <v>0.89707800000000004</v>
-      </c>
-      <c r="J5" s="122">
-        <v>0.102922</v>
-      </c>
-      <c r="N5" s="115">
-        <v>0.88437100000000002</v>
-      </c>
-      <c r="O5" s="98">
-        <v>0.115629</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1">
-      <c r="A6" s="167"/>
+      <c r="I5" s="122">
+        <v>0.87865300000000002</v>
+      </c>
+      <c r="J5" s="123">
+        <v>0.121347</v>
+      </c>
+      <c r="K5" s="112">
+        <v>0.87484099999999998</v>
+      </c>
+      <c r="L5" s="113">
+        <v>0.12515899999999999</v>
+      </c>
+      <c r="M5" s="112">
+        <v>0.85832299999999995</v>
+      </c>
+      <c r="N5" s="113">
+        <v>0.141677</v>
+      </c>
+      <c r="O5" s="120"/>
+      <c r="P5" s="112">
+        <v>0.87484099999999998</v>
+      </c>
+      <c r="Q5" s="113">
+        <v>0.12515899999999999</v>
+      </c>
+      <c r="R5" s="112">
+        <v>0.86340499999999998</v>
+      </c>
+      <c r="S5" s="113">
+        <v>0.13659499999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" thickBot="1">
+      <c r="A6" s="170"/>
       <c r="B6" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="125">
-        <v>0.110767</v>
-      </c>
-      <c r="D6" s="126">
-        <v>0.88923300000000005</v>
-      </c>
-      <c r="E6" s="125">
-        <v>9.0346999999999997E-2</v>
-      </c>
-      <c r="F6" s="126">
-        <v>0.90965300000000004</v>
-      </c>
-      <c r="G6" s="127">
+      <c r="C6" s="124">
+        <v>7.3638999999999996E-2</v>
+      </c>
+      <c r="D6" s="117">
+        <v>0.92636099999999999</v>
+      </c>
+      <c r="E6" s="124">
+        <v>7.3638999999999996E-2</v>
+      </c>
+      <c r="F6" s="117">
+        <v>0.92636099999999999</v>
+      </c>
+      <c r="G6" s="118">
         <v>0.14021</v>
       </c>
-      <c r="H6" s="128">
+      <c r="H6" s="119">
         <v>0.85979000000000005</v>
       </c>
-      <c r="I6" s="125">
-        <v>0.112624</v>
-      </c>
-      <c r="J6" s="126">
-        <v>0.88737600000000005</v>
-      </c>
-      <c r="N6" s="115">
-        <v>0.13490099999999999</v>
-      </c>
-      <c r="O6" s="98">
-        <v>0.86509899999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="117"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1">
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="129"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="117"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="I6" s="124">
+        <v>0.10396</v>
+      </c>
+      <c r="J6" s="117">
+        <v>0.89603999999999995</v>
+      </c>
+      <c r="K6" s="116">
+        <v>7.1781999999999999E-2</v>
+      </c>
+      <c r="L6" s="117">
+        <v>0.92821799999999999</v>
+      </c>
+      <c r="M6" s="116">
+        <v>0.13180700000000001</v>
+      </c>
+      <c r="N6" s="117">
+        <v>0.86819299999999999</v>
+      </c>
+      <c r="O6" s="120"/>
+      <c r="P6" s="116">
+        <v>7.1781999999999999E-2</v>
+      </c>
+      <c r="Q6" s="117">
+        <v>0.92821799999999999</v>
+      </c>
+      <c r="R6" s="116">
+        <v>0.12871299999999999</v>
+      </c>
+      <c r="S6" s="117">
+        <v>0.87128700000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="120"/>
+      <c r="R7" s="120"/>
+      <c r="S7" s="120"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" thickBot="1">
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="120"/>
+      <c r="R8" s="120"/>
+      <c r="S8" s="120"/>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="85" t="s">
         <v>74</v>
       </c>
       <c r="B9" s="86"/>
-      <c r="C9" s="176">
-        <v>0.88923300000000005</v>
-      </c>
-      <c r="D9" s="177"/>
-      <c r="E9" s="176">
-        <v>0.90965300000000004</v>
-      </c>
-      <c r="F9" s="177"/>
-      <c r="G9" s="180">
+      <c r="C9" s="155">
+        <v>0.92636099999999999</v>
+      </c>
+      <c r="D9" s="156"/>
+      <c r="E9" s="155">
+        <v>0.92636099999999999</v>
+      </c>
+      <c r="F9" s="156"/>
+      <c r="G9" s="163">
         <v>0.85979000000000005</v>
       </c>
-      <c r="H9" s="181"/>
-      <c r="I9" s="168">
-        <v>0.88737600000000005</v>
-      </c>
-      <c r="J9" s="169"/>
-      <c r="N9" s="208">
-        <v>0.86509899999999995</v>
-      </c>
-      <c r="O9" s="209"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1">
+      <c r="H9" s="164"/>
+      <c r="I9" s="155">
+        <v>0.89603999999999995</v>
+      </c>
+      <c r="J9" s="156"/>
+      <c r="K9" s="157">
+        <v>0.92821799999999999</v>
+      </c>
+      <c r="L9" s="158"/>
+      <c r="M9" s="157">
+        <v>0.86819299999999999</v>
+      </c>
+      <c r="N9" s="158"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="157">
+        <v>0.92821799999999999</v>
+      </c>
+      <c r="Q9" s="158"/>
+      <c r="R9" s="157">
+        <v>0.87128700000000003</v>
+      </c>
+      <c r="S9" s="158"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" thickBot="1">
       <c r="A10" s="88" t="s">
         <v>75</v>
       </c>
       <c r="B10" s="89"/>
-      <c r="C10" s="178">
-        <v>0.10419299999999999</v>
-      </c>
-      <c r="D10" s="179"/>
-      <c r="E10" s="178">
-        <v>0.22045699999999999</v>
-      </c>
-      <c r="F10" s="179"/>
-      <c r="G10" s="182">
+      <c r="C10" s="159">
+        <v>0.12706500000000001</v>
+      </c>
+      <c r="D10" s="160"/>
+      <c r="E10" s="159">
+        <v>0.253494</v>
+      </c>
+      <c r="F10" s="160"/>
+      <c r="G10" s="165">
         <v>7.1291999999999994E-2</v>
       </c>
-      <c r="H10" s="183"/>
-      <c r="I10" s="170">
-        <v>0.102922</v>
-      </c>
-      <c r="J10" s="171"/>
-      <c r="N10" s="211">
-        <v>0.115629</v>
-      </c>
-      <c r="O10" s="212"/>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="H10" s="166"/>
+      <c r="I10" s="159">
+        <v>0.121347</v>
+      </c>
+      <c r="J10" s="160"/>
+      <c r="K10" s="161">
+        <v>0.12515899999999999</v>
+      </c>
+      <c r="L10" s="162"/>
+      <c r="M10" s="161">
+        <v>0.12642900000000001</v>
+      </c>
+      <c r="N10" s="162"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="161">
+        <v>0.12515899999999999</v>
+      </c>
+      <c r="Q10" s="162"/>
+      <c r="R10" s="161">
+        <v>0.13659499999999999</v>
+      </c>
+      <c r="S10" s="162"/>
+    </row>
+    <row r="11" spans="1:19">
       <c r="C11" s="97"/>
       <c r="D11" s="97"/>
       <c r="E11" s="97"/>
       <c r="F11" s="97"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
       <c r="I11" s="97"/>
       <c r="J11" s="97"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="117"/>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="97"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" thickBot="1">
       <c r="C12" s="97"/>
       <c r="D12" s="97"/>
       <c r="E12" s="97"/>
       <c r="F12" s="97"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="110"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="109"/>
       <c r="I12" s="97"/>
-      <c r="J12" s="105"/>
-      <c r="N12" s="116"/>
-      <c r="O12" s="118"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="104"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" thickBot="1">
+      <c r="A13" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="111"/>
+      <c r="C13" s="151">
+        <v>0.10815</v>
+      </c>
+      <c r="D13" s="152"/>
+      <c r="E13" s="151">
+        <v>0.15767999999999999</v>
+      </c>
+      <c r="F13" s="152"/>
+      <c r="G13" s="153">
+        <v>0.10627</v>
+      </c>
+      <c r="H13" s="154"/>
+      <c r="I13" s="151">
+        <v>0.121944</v>
+      </c>
+      <c r="J13" s="152"/>
+      <c r="K13" s="153">
+        <v>0.107837</v>
+      </c>
+      <c r="L13" s="154"/>
+      <c r="M13" s="153">
+        <v>0.107837</v>
+      </c>
+      <c r="N13" s="154"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="92"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="39">
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="N10:O10"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
-    <mergeCell ref="N9:O9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="N1:O1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25464,10 +25355,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="142" t="s">
+      <c r="G1" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="143"/>
+      <c r="H1" s="126"/>
       <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:16">
@@ -25915,10 +25806,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="142" t="s">
+      <c r="G1" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="143"/>
+      <c r="H1" s="126"/>
       <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:16">
@@ -26368,10 +26259,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="144" t="s">
+      <c r="G1" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="145"/>
+      <c r="H1" s="128"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="2"/>
@@ -26393,10 +26284,10 @@
       <c r="H2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="146" t="s">
+      <c r="I2" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="147"/>
+      <c r="J2" s="130"/>
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1">
       <c r="A3" s="3">
@@ -26422,11 +26313,11 @@
         <f>SUM(D3,D6,D9,D12,D15,D18,D21,D24,D27,D30)/10</f>
         <v>23.824451400000001</v>
       </c>
-      <c r="I3" s="148">
+      <c r="I3" s="131">
         <f>(H3-G3)/H3*100</f>
         <v>8.5526317722472331</v>
       </c>
-      <c r="J3" s="149"/>
+      <c r="J3" s="132"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1">
       <c r="A4" s="1" t="s">
@@ -26830,10 +26721,10 @@
       <c r="C1" s="46"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="150"/>
+      <c r="C2" s="133"/>
       <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:6">
@@ -26865,8 +26756,8 @@
       <c r="F8" s="46"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
       <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:6">

--- a/weatherrankfilter_dbscan.xlsx
+++ b/weatherrankfilter_dbscan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shukl\Documents\GitHub\Daily_Weather\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BED8D2-4514-4ECA-B2E2-F134E4A5EA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9223D26A-A769-4F9E-8A63-502088C5E2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="14" xr2:uid="{9165270A-2809-4AF8-982C-0E3B25320FC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="16" xr2:uid="{9165270A-2809-4AF8-982C-0E3B25320FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="WeatherDT%10" sheetId="1" state="hidden" r:id="rId1"/>
@@ -29,12 +29,11 @@
     <sheet name="dbscan_clust_l1pca" sheetId="16" r:id="rId14"/>
     <sheet name="knee_l1pca_0%" sheetId="17" r:id="rId15"/>
     <sheet name="knee_l1_10%" sheetId="18" r:id="rId16"/>
-    <sheet name="Sheet4" sheetId="19" r:id="rId17"/>
+    <sheet name="SVM ranks8" sheetId="19" r:id="rId17"/>
     <sheet name="weatherDT%cor" sheetId="5" state="hidden" r:id="rId18"/>
     <sheet name="weatherSVM%cor" sheetId="6" state="hidden" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="96">
   <si>
     <t>---------split 1 --------------------</t>
   </si>
@@ -655,6 +654,12 @@
   <si>
     <t>knee error  + opt rank(1 to 5) using angle</t>
   </si>
+  <si>
+    <t>raw</t>
+  </si>
+  <si>
+    <t>curated</t>
+  </si>
 </sst>
 </file>
 
@@ -1170,7 +1175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1512,23 +1517,11 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1536,28 +1529,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="17" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1578,6 +1553,42 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1590,10 +1601,10 @@
     <xf numFmtId="0" fontId="4" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -11648,8 +11659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BF5402-0B55-4FF7-968A-750CFC968FFA}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11665,43 +11676,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1">
-      <c r="C1" s="177" t="s">
+      <c r="C1" s="151" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="178"/>
-      <c r="E1" s="177" t="s">
+      <c r="D1" s="152"/>
+      <c r="E1" s="151" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="178"/>
-      <c r="G1" s="177" t="s">
+      <c r="F1" s="152"/>
+      <c r="G1" s="151" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="178"/>
-      <c r="I1" s="177" t="s">
+      <c r="H1" s="152"/>
+      <c r="I1" s="151" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="178"/>
-      <c r="K1" s="177" t="s">
+      <c r="J1" s="152"/>
+      <c r="K1" s="151" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="178"/>
-      <c r="O1" s="171" t="s">
+      <c r="L1" s="152"/>
+      <c r="O1" s="161" t="s">
         <v>89</v>
       </c>
-      <c r="P1" s="172"/>
+      <c r="P1" s="162"/>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1"/>
     <row r="3" spans="1:16" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="167" t="s">
+      <c r="C3" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="168"/>
-      <c r="E3" s="167" t="s">
+      <c r="D3" s="158"/>
+      <c r="E3" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="168"/>
+      <c r="F3" s="158"/>
       <c r="G3" s="147" t="s">
         <v>45</v>
       </c>
@@ -11760,7 +11771,7 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="169" t="b">
+      <c r="A5" s="159" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="78" t="s">
@@ -11805,7 +11816,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" thickBot="1">
-      <c r="A6" s="170"/>
+      <c r="A6" s="160"/>
       <c r="B6" s="81" t="s">
         <v>56</v>
       </c>
@@ -11882,62 +11893,62 @@
         <v>74</v>
       </c>
       <c r="B9" s="86"/>
-      <c r="C9" s="155">
+      <c r="C9" s="163">
         <v>0.92636099999999999</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="155">
+      <c r="D9" s="164"/>
+      <c r="E9" s="163">
         <v>0.92636099999999999</v>
       </c>
-      <c r="F9" s="156"/>
-      <c r="G9" s="157">
+      <c r="F9" s="164"/>
+      <c r="G9" s="153">
         <v>0.92821799999999999</v>
       </c>
-      <c r="H9" s="158"/>
-      <c r="I9" s="157">
+      <c r="H9" s="154"/>
+      <c r="I9" s="153">
         <v>0.92821799999999999</v>
       </c>
-      <c r="J9" s="158"/>
-      <c r="K9" s="157">
+      <c r="J9" s="154"/>
+      <c r="K9" s="153">
         <v>0.91955399999999998</v>
       </c>
-      <c r="L9" s="158"/>
+      <c r="L9" s="154"/>
       <c r="M9" s="120"/>
-      <c r="O9" s="157">
+      <c r="O9" s="153">
         <v>0.92821799999999999</v>
       </c>
-      <c r="P9" s="158"/>
+      <c r="P9" s="154"/>
     </row>
     <row r="10" spans="1:16" ht="15" thickBot="1">
       <c r="A10" s="88" t="s">
         <v>75</v>
       </c>
       <c r="B10" s="89"/>
-      <c r="C10" s="159">
+      <c r="C10" s="165">
         <v>0.12706500000000001</v>
       </c>
-      <c r="D10" s="160"/>
-      <c r="E10" s="159">
+      <c r="D10" s="166"/>
+      <c r="E10" s="165">
         <v>0.253494</v>
       </c>
-      <c r="F10" s="160"/>
-      <c r="G10" s="161">
+      <c r="F10" s="166"/>
+      <c r="G10" s="155">
         <v>0.12515899999999999</v>
       </c>
-      <c r="H10" s="162"/>
-      <c r="I10" s="161">
+      <c r="H10" s="156"/>
+      <c r="I10" s="155">
         <v>0.12515899999999999</v>
       </c>
-      <c r="J10" s="162"/>
-      <c r="K10" s="161">
+      <c r="J10" s="156"/>
+      <c r="K10" s="155">
         <v>0.12642900000000001</v>
       </c>
-      <c r="L10" s="162"/>
+      <c r="L10" s="156"/>
       <c r="M10" s="120"/>
-      <c r="O10" s="161">
+      <c r="O10" s="155">
         <v>0.12515899999999999</v>
       </c>
-      <c r="P10" s="162"/>
+      <c r="P10" s="156"/>
     </row>
     <row r="11" spans="1:16">
       <c r="C11" s="97"/>
@@ -11964,28 +11975,49 @@
         <v>76</v>
       </c>
       <c r="B13" s="111"/>
-      <c r="C13" s="151">
+      <c r="C13" s="167">
         <v>0.10815</v>
       </c>
-      <c r="D13" s="152"/>
-      <c r="E13" s="151">
+      <c r="D13" s="168"/>
+      <c r="E13" s="167">
         <v>0.15767999999999999</v>
       </c>
-      <c r="F13" s="152"/>
-      <c r="K13" s="153">
+      <c r="F13" s="168"/>
+      <c r="K13" s="169">
         <v>0.107837</v>
       </c>
-      <c r="L13" s="154"/>
-      <c r="O13" s="153">
+      <c r="L13" s="170"/>
+      <c r="O13" s="169">
         <v>0.107837</v>
       </c>
-      <c r="P13" s="154"/>
+      <c r="P13" s="170"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I9:J9"/>
@@ -11994,27 +12026,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="O13:P13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12037,38 +12048,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" thickBot="1">
-      <c r="C1" s="171" t="s">
+      <c r="C1" s="161" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="172"/>
-      <c r="E1" s="171" t="s">
+      <c r="D1" s="162"/>
+      <c r="E1" s="161" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="172"/>
-      <c r="G1" s="173" t="s">
+      <c r="F1" s="162"/>
+      <c r="G1" s="175" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="174"/>
-      <c r="I1" s="171" t="s">
+      <c r="H1" s="176"/>
+      <c r="I1" s="161" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="172"/>
-      <c r="K1" s="171" t="s">
+      <c r="J1" s="162"/>
+      <c r="K1" s="161" t="s">
         <v>89</v>
       </c>
-      <c r="L1" s="172"/>
-      <c r="M1" s="171" t="s">
+      <c r="L1" s="162"/>
+      <c r="M1" s="161" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="172"/>
-      <c r="P1" s="171" t="s">
+      <c r="N1" s="162"/>
+      <c r="P1" s="161" t="s">
         <v>87</v>
       </c>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="171" t="s">
+      <c r="Q1" s="162"/>
+      <c r="R1" s="161" t="s">
         <v>88</v>
       </c>
-      <c r="S1" s="172"/>
+      <c r="S1" s="162"/>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1">
       <c r="G2" s="105"/>
@@ -12077,22 +12088,22 @@
     <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="76"/>
       <c r="B3" s="76"/>
-      <c r="C3" s="167" t="s">
+      <c r="C3" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="168"/>
-      <c r="E3" s="167" t="s">
+      <c r="D3" s="158"/>
+      <c r="E3" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="168"/>
-      <c r="G3" s="175" t="s">
+      <c r="F3" s="158"/>
+      <c r="G3" s="177" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="176"/>
-      <c r="I3" s="167" t="s">
+      <c r="H3" s="178"/>
+      <c r="I3" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="168"/>
+      <c r="J3" s="158"/>
       <c r="K3" s="147" t="s">
         <v>45</v>
       </c>
@@ -12163,7 +12174,7 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="169" t="b">
+      <c r="A5" s="159" t="b">
         <v>1</v>
       </c>
       <c r="B5" s="78" t="s">
@@ -12220,7 +12231,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1">
-      <c r="A6" s="170"/>
+      <c r="A6" s="160"/>
       <c r="B6" s="81" t="s">
         <v>56</v>
       </c>
@@ -12317,78 +12328,78 @@
         <v>74</v>
       </c>
       <c r="B9" s="86"/>
-      <c r="C9" s="155">
+      <c r="C9" s="163">
         <v>0.92636099999999999</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="155">
+      <c r="D9" s="164"/>
+      <c r="E9" s="163">
         <v>0.92636099999999999</v>
       </c>
-      <c r="F9" s="156"/>
-      <c r="G9" s="163">
+      <c r="F9" s="164"/>
+      <c r="G9" s="173">
         <v>0.85979000000000005</v>
       </c>
-      <c r="H9" s="164"/>
-      <c r="I9" s="155">
+      <c r="H9" s="174"/>
+      <c r="I9" s="163">
         <v>0.89603999999999995</v>
       </c>
-      <c r="J9" s="156"/>
-      <c r="K9" s="157">
+      <c r="J9" s="164"/>
+      <c r="K9" s="153">
         <v>0.92821799999999999</v>
       </c>
-      <c r="L9" s="158"/>
-      <c r="M9" s="157">
+      <c r="L9" s="154"/>
+      <c r="M9" s="153">
         <v>0.86819299999999999</v>
       </c>
-      <c r="N9" s="158"/>
+      <c r="N9" s="154"/>
       <c r="O9" s="120"/>
-      <c r="P9" s="157">
+      <c r="P9" s="153">
         <v>0.92821799999999999</v>
       </c>
-      <c r="Q9" s="158"/>
-      <c r="R9" s="157">
+      <c r="Q9" s="154"/>
+      <c r="R9" s="153">
         <v>0.87128700000000003</v>
       </c>
-      <c r="S9" s="158"/>
+      <c r="S9" s="154"/>
     </row>
     <row r="10" spans="1:19" ht="15" thickBot="1">
       <c r="A10" s="88" t="s">
         <v>75</v>
       </c>
       <c r="B10" s="89"/>
-      <c r="C10" s="159">
+      <c r="C10" s="165">
         <v>0.12706500000000001</v>
       </c>
-      <c r="D10" s="160"/>
-      <c r="E10" s="159">
+      <c r="D10" s="166"/>
+      <c r="E10" s="165">
         <v>0.253494</v>
       </c>
-      <c r="F10" s="160"/>
-      <c r="G10" s="165">
+      <c r="F10" s="166"/>
+      <c r="G10" s="171">
         <v>7.1291999999999994E-2</v>
       </c>
-      <c r="H10" s="166"/>
-      <c r="I10" s="159">
+      <c r="H10" s="172"/>
+      <c r="I10" s="165">
         <v>0.121347</v>
       </c>
-      <c r="J10" s="160"/>
-      <c r="K10" s="161">
+      <c r="J10" s="166"/>
+      <c r="K10" s="155">
         <v>0.12515899999999999</v>
       </c>
-      <c r="L10" s="162"/>
-      <c r="M10" s="161">
+      <c r="L10" s="156"/>
+      <c r="M10" s="155">
         <v>0.12642900000000001</v>
       </c>
-      <c r="N10" s="162"/>
+      <c r="N10" s="156"/>
       <c r="O10" s="120"/>
-      <c r="P10" s="161">
+      <c r="P10" s="155">
         <v>0.12515899999999999</v>
       </c>
-      <c r="Q10" s="162"/>
-      <c r="R10" s="161">
+      <c r="Q10" s="156"/>
+      <c r="R10" s="155">
         <v>0.13659499999999999</v>
       </c>
-      <c r="S10" s="162"/>
+      <c r="S10" s="156"/>
     </row>
     <row r="11" spans="1:19">
       <c r="C11" s="97"/>
@@ -12423,36 +12434,66 @@
         <v>76</v>
       </c>
       <c r="B13" s="111"/>
-      <c r="C13" s="151">
+      <c r="C13" s="167">
         <v>0.10815</v>
       </c>
-      <c r="D13" s="152"/>
-      <c r="E13" s="151">
+      <c r="D13" s="168"/>
+      <c r="E13" s="167">
         <v>0.15767999999999999</v>
       </c>
-      <c r="F13" s="152"/>
-      <c r="G13" s="153">
+      <c r="F13" s="168"/>
+      <c r="G13" s="169">
         <v>0.10627</v>
       </c>
-      <c r="H13" s="154"/>
-      <c r="I13" s="151">
+      <c r="H13" s="170"/>
+      <c r="I13" s="167">
         <v>0.121944</v>
       </c>
-      <c r="J13" s="152"/>
-      <c r="K13" s="153">
+      <c r="J13" s="168"/>
+      <c r="K13" s="169">
         <v>0.107837</v>
       </c>
-      <c r="L13" s="154"/>
-      <c r="M13" s="153">
+      <c r="L13" s="170"/>
+      <c r="M13" s="169">
         <v>0.107837</v>
       </c>
-      <c r="N13" s="154"/>
+      <c r="N13" s="170"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
@@ -12462,36 +12503,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12499,59 +12510,153 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C628C7D-851D-44B4-A1BB-C8085118862A}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
+      <c r="D1" s="180">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>0.72744599745870397</v>
-      </c>
-      <c r="C1">
-        <v>0.27255400254129603</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1.7945544554455399E-2</v>
-      </c>
-      <c r="C2">
-        <v>0.98205445544554404</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.98205445544554404</v>
-      </c>
-      <c r="C3">
-        <v>1.7945544554455399E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0.72744599745870397</v>
-      </c>
-      <c r="C4">
-        <v>0.27255400254129603</v>
-      </c>
+      <c r="E1" s="179"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1">
+      <c r="C2" s="151" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="152"/>
+      <c r="E2" s="151" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="152"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1"/>
+    <row r="4" spans="1:10">
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="157" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="158"/>
+      <c r="E4" s="157" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="158"/>
+      <c r="J4">
+        <v>42465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1">
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="159" t="b">
+        <v>1</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="122">
+        <v>0.87357099999999999</v>
+      </c>
+      <c r="D6" s="123">
+        <v>0.12642900000000001</v>
+      </c>
+      <c r="E6" s="122">
+        <v>0.87484099999999998</v>
+      </c>
+      <c r="F6" s="123">
+        <v>0.12515899999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1">
+      <c r="A7" s="160"/>
+      <c r="B7" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="124">
+        <v>8.0446000000000004E-2</v>
+      </c>
+      <c r="D7" s="117">
+        <v>0.91955399999999998</v>
+      </c>
+      <c r="E7" s="124">
+        <v>7.1781999999999999E-2</v>
+      </c>
+      <c r="F7" s="117">
+        <v>0.92821799999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1">
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="86"/>
+      <c r="C10" s="163">
+        <v>0.91955399999999998</v>
+      </c>
+      <c r="D10" s="164"/>
+      <c r="E10" s="163">
+        <v>0.92821799999999999</v>
+      </c>
+      <c r="F10" s="164"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1">
+      <c r="A11" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="89"/>
+      <c r="C11" s="165">
+        <v>0.12642900000000001</v>
+      </c>
+      <c r="D11" s="166"/>
+      <c r="E11" s="165">
+        <v>0.12515899999999999</v>
+      </c>
+      <c r="F11" s="166"/>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
